--- a/data/Production_Filled_August.xlsx
+++ b/data/Production_Filled_August.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cil94\Desktop\test\Filter_form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
+    <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>DATE</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>AUGUST TOTAL SALABLE PRODUCTION</t>
   </si>
   <si>
     <t>Jute Issue</t>
@@ -365,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,14 +398,6 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -628,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -638,18 +627,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -666,11 +643,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -704,12 +681,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +695,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7276,9 +7262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7288,142 +7274,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="K1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="P1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="U1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="Z1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AB1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AC1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AD1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AD1" s="45" t="s">
+      <c r="AE1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AF1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AG1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AH1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AI1" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" s="45" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AL1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AM1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AN1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AN1" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO1" s="44" t="s">
+      <c r="AO1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="44" t="s">
+      <c r="AP1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="44" t="s">
+      <c r="AQ1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="44" t="s">
+      <c r="AR1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="44" t="s">
+      <c r="AS1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="45" t="s">
+      <c r="AT1" s="39" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9806,15 +9792,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9828,473 +9815,479 @@
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B2" s="7">
+        <v>31.972999999999999</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="D2" s="7">
+        <v>7.6120000000000001</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUM(B2:E2)</f>
+        <v>41.341999999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(B2:E2)-C2</f>
+        <v>40.362000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45871</v>
-      </c>
-      <c r="B3" s="11">
-        <v>31.972999999999999</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="D3" s="11">
-        <v>7.6120000000000001</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0.77700000000000002</v>
+        <v>45872</v>
+      </c>
+      <c r="B3" s="2">
+        <v>33.06</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.5210000000000008</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.79800000000000004</v>
       </c>
       <c r="F3" s="2">
-        <f>SUM(B3:E3)</f>
-        <v>41.341999999999999</v>
+        <f t="shared" ref="F3:F29" si="0">SUM(B3:E3)</f>
+        <v>43.639000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f>SUM(B3:E3)-C3</f>
-        <v>40.362000000000002</v>
+        <f t="shared" ref="G3:G29" si="1">SUM(B3:E3)-C3</f>
+        <v>42.379000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45872</v>
-      </c>
-      <c r="B4" s="2">
-        <v>33.06</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1.26</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8.5210000000000008</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.79800000000000004</v>
+        <v>45873</v>
+      </c>
+      <c r="B4" s="7">
+        <v>32.932000000000002</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.78400000000000003</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F30" si="0">SUM(B4:E4)</f>
-        <v>43.639000000000003</v>
+        <f t="shared" si="0"/>
+        <v>42.666000000000004</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G30" si="1">SUM(B4:E4)-C4</f>
-        <v>42.379000000000005</v>
+        <f t="shared" si="1"/>
+        <v>42.666000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45873</v>
-      </c>
-      <c r="B5" s="11">
-        <v>32.932000000000002</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.78400000000000003</v>
+        <v>45874</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.34</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.79300000000000004</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>42.666000000000004</v>
+        <v>43.143000000000008</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>42.666000000000004</v>
+        <v>42.513000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45874</v>
-      </c>
-      <c r="B6" s="2">
-        <v>33.380000000000003</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.63</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8.34</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.79300000000000004</v>
+        <v>45875</v>
+      </c>
+      <c r="B6" s="7">
+        <v>34.171999999999997</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.022</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.8130000000000006</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.80300000000000005</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>43.143000000000008</v>
+        <v>44.809999999999995</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>42.513000000000005</v>
+        <v>43.787999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45875</v>
-      </c>
-      <c r="B7" s="11">
-        <v>34.171999999999997</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.022</v>
-      </c>
-      <c r="D7" s="11">
-        <v>8.8130000000000006</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.80300000000000005</v>
+        <v>45876</v>
+      </c>
+      <c r="B7" s="2">
+        <v>34.883000000000003</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.968</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.8</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>44.809999999999995</v>
+        <v>44.650999999999996</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>43.787999999999997</v>
+        <v>44.650999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45876</v>
-      </c>
-      <c r="B8" s="2">
-        <v>34.883000000000003</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.968</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.8</v>
+        <v>45878</v>
+      </c>
+      <c r="B8" s="7">
+        <v>29.844000000000001</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.5259999999999998</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.752</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>44.650999999999996</v>
+        <v>39.122000000000007</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>44.650999999999996</v>
+        <v>39.122000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45878</v>
-      </c>
-      <c r="B9" s="11">
-        <v>29.844000000000001</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>8.5259999999999998</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.752</v>
+        <v>45879</v>
+      </c>
+      <c r="B9" s="2">
+        <v>33.027999999999999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.2230000000000008</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.68500000000000005</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>39.122000000000007</v>
+        <v>41.936</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>39.122000000000007</v>
+        <v>41.936</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45879</v>
-      </c>
-      <c r="B10" s="2">
-        <v>33.027999999999999</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8.2230000000000008</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.68500000000000005</v>
+        <v>45880</v>
+      </c>
+      <c r="B10" s="7">
+        <v>32.734999999999999</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8.15</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.67600000000000005</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>41.936</v>
+        <v>41.561</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>41.936</v>
+        <v>41.561</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45880</v>
-      </c>
-      <c r="B11" s="11">
-        <v>32.734999999999999</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>8.15</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.67600000000000005</v>
+        <v>45881</v>
+      </c>
+      <c r="B11" s="2">
+        <v>33.917999999999999</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.12</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.79800000000000004</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>41.561</v>
+        <v>41.835999999999999</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>41.561</v>
+        <v>41.835999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45881</v>
-      </c>
-      <c r="B12" s="2">
-        <v>33.917999999999999</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7.12</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.79800000000000004</v>
+        <v>45882</v>
+      </c>
+      <c r="B12" s="7">
+        <v>35.337000000000003</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6.78</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.79900000000000004</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>41.835999999999999</v>
+        <v>42.916000000000004</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>41.835999999999999</v>
+        <v>42.916000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45882</v>
-      </c>
-      <c r="B13" s="11">
-        <v>35.337000000000003</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>6.78</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.79900000000000004</v>
+        <v>45883</v>
+      </c>
+      <c r="B13" s="2">
+        <v>35.231000000000002</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.34</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.77300000000000002</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>42.916000000000004</v>
+        <v>41.344000000000001</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>42.916000000000004</v>
+        <v>41.344000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45883</v>
-      </c>
-      <c r="B14" s="2">
-        <v>35.231000000000002</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.77300000000000002</v>
+        <v>45885</v>
+      </c>
+      <c r="B14" s="7">
+        <v>33.238999999999997</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.79300000000000004</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>41.344000000000001</v>
+        <v>40.231999999999999</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>41.344000000000001</v>
+        <v>40.231999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45885</v>
-      </c>
-      <c r="B15" s="11">
-        <v>33.238999999999997</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.79300000000000004</v>
+        <v>45886</v>
+      </c>
+      <c r="B15" s="2">
+        <v>34.692999999999998</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.79100000000000004</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>40.231999999999999</v>
+        <v>42.153999999999996</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>40.231999999999999</v>
+        <v>42.153999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45886</v>
-      </c>
-      <c r="B16" s="2">
-        <v>34.692999999999998</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6.67</v>
-      </c>
-      <c r="E16" s="15">
+        <v>45887</v>
+      </c>
+      <c r="B16" s="7">
+        <v>34.677999999999997</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7.6150000000000002</v>
+      </c>
+      <c r="E16" s="9">
         <v>0.79100000000000004</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>42.153999999999996</v>
+        <v>43.083999999999996</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>42.153999999999996</v>
+        <v>43.083999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45887</v>
-      </c>
-      <c r="B17" s="11">
-        <v>34.677999999999997</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>7.6150000000000002</v>
-      </c>
-      <c r="E17" s="13">
+        <v>45888</v>
+      </c>
+      <c r="B17" s="2">
+        <v>33.255000000000003</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="E17" s="11">
         <v>0.79100000000000004</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>43.083999999999996</v>
+        <v>41.795999999999999</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>43.083999999999996</v>
+        <v>41.795999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45888</v>
-      </c>
-      <c r="B18" s="2">
-        <v>33.255000000000003</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0</v>
+        <v>45889</v>
+      </c>
+      <c r="B18" s="7">
+        <v>33.640999999999998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.49</v>
       </c>
       <c r="D18" s="2">
-        <v>7.75</v>
-      </c>
-      <c r="E18" s="15">
+        <v>8.0449999999999999</v>
+      </c>
+      <c r="E18" s="9">
         <v>0.79100000000000004</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>41.795999999999999</v>
+        <v>42.966999999999999</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>41.795999999999999</v>
+        <v>42.476999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45889</v>
-      </c>
-      <c r="B19" s="11">
-        <v>33.640999999999998</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0.49</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8.0449999999999999</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.79100000000000004</v>
-      </c>
+        <v>45890</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>42.966999999999999</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>42.476999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45890</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="15"/>
+        <v>45891</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10306,12 +10299,12 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45891</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
+        <v>45892</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10323,12 +10316,12 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45892</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="15"/>
+        <v>45893</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10340,12 +10333,12 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45893</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="18"/>
+        <v>45894</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10357,7 +10350,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -10374,7 +10367,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -10391,7 +10384,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -10408,12 +10401,12 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45897</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>45898</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10425,7 +10418,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10442,7 +10435,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10458,21 +10451,13 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>45900</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
@@ -10480,31 +10465,19 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="19" t="s">
+      <c r="F31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="20">
-        <f>SUM(G3:G30)</f>
+      <c r="G31" s="16">
+        <f>SUM(G2:G29)</f>
         <v>714.81700000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G30 F3:F30" formulaRange="1"/>
+    <ignoredError sqref="G2:G29 F2:F29" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10513,8 +10486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10528,97 +10501,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20">
         <v>45871</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="20">
         <v>45872</v>
       </c>
-      <c r="D1" s="24">
+      <c r="D1" s="20">
         <v>45873</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="20">
         <v>45874</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="20">
         <v>45875</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="20">
         <v>45876</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="20">
         <v>45878</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="20">
         <v>45879</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="20">
         <v>45880</v>
       </c>
-      <c r="K1" s="24">
+      <c r="K1" s="20">
         <v>45881</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L1" s="20">
         <v>45882</v>
       </c>
-      <c r="M1" s="24">
+      <c r="M1" s="20">
         <v>45883</v>
       </c>
-      <c r="N1" s="24">
+      <c r="N1" s="20">
         <v>45885</v>
       </c>
-      <c r="O1" s="24">
+      <c r="O1" s="20">
         <v>45886</v>
       </c>
-      <c r="P1" s="24">
+      <c r="P1" s="20">
         <v>45887</v>
       </c>
-      <c r="Q1" s="24">
+      <c r="Q1" s="20">
         <v>45888</v>
       </c>
-      <c r="R1" s="24">
+      <c r="R1" s="20">
         <v>45889</v>
       </c>
-      <c r="S1" s="24">
+      <c r="S1" s="20">
         <v>45890</v>
       </c>
-      <c r="T1" s="24">
+      <c r="T1" s="20">
         <v>45891</v>
       </c>
-      <c r="U1" s="24">
+      <c r="U1" s="20">
         <v>45892</v>
       </c>
-      <c r="V1" s="24">
+      <c r="V1" s="20">
         <v>45893</v>
       </c>
-      <c r="W1" s="24">
+      <c r="W1" s="20">
         <v>45894</v>
       </c>
-      <c r="X1" s="24">
+      <c r="X1" s="20">
         <v>45895</v>
       </c>
-      <c r="Y1" s="24">
+      <c r="Y1" s="20">
         <v>45896</v>
       </c>
-      <c r="Z1" s="24">
+      <c r="Z1" s="20">
         <v>45897</v>
       </c>
-      <c r="AA1" s="24">
+      <c r="AA1" s="20">
         <v>45898</v>
       </c>
-      <c r="AB1" s="24">
+      <c r="AB1" s="20">
         <v>45899</v>
       </c>
-      <c r="AC1" s="24">
+      <c r="AC1" s="20">
         <v>45900</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>46.704000000000001</v>
@@ -10671,21 +10644,21 @@
       <c r="R2" s="2">
         <v>39.802999999999997</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>3.4769999999999999</v>
@@ -10738,17 +10711,17 @@
       <c r="R3" s="3">
         <v>3.8719999999999999</v>
       </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10869,1195 +10842,1195 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="A8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="33">
+        <v>19</v>
+      </c>
+      <c r="B9" s="29">
         <v>143</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="29">
         <v>143</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="29">
         <v>143</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="29">
         <v>143</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="29">
         <v>143</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>143</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="29">
         <v>133</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="29">
         <v>142</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="29">
         <v>143</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="29">
         <v>143</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="17">
         <v>143</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="30">
         <v>143</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="29">
         <v>137</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="29">
         <v>142</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="29">
         <v>143</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="29">
         <v>143</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="29">
         <v>143</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="32">
-        <v>0</v>
-      </c>
-      <c r="C10" s="32">
-        <v>0</v>
-      </c>
-      <c r="D10" s="32">
-        <v>0</v>
-      </c>
-      <c r="E10" s="32">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32">
-        <v>0</v>
-      </c>
-      <c r="G10" s="32">
-        <v>0</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="32">
-        <v>0</v>
-      </c>
-      <c r="J10" s="32">
-        <v>0</v>
-      </c>
-      <c r="K10" s="32">
-        <v>0</v>
-      </c>
-      <c r="L10" s="32">
+        <v>20</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
         <v>2.6</v>
       </c>
-      <c r="M10" s="32">
-        <v>0</v>
-      </c>
-      <c r="N10" s="32">
-        <v>0</v>
-      </c>
-      <c r="O10" s="32">
-        <v>0</v>
-      </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="32">
+      <c r="M10" s="28">
+        <v>0</v>
+      </c>
+      <c r="N10" s="28">
+        <v>0</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28">
         <v>0.4</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="28">
         <v>1.92</v>
       </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="32">
+        <v>21</v>
+      </c>
+      <c r="B11" s="28">
         <v>0.82399999999999995</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="31">
         <v>0.6</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="28">
         <v>0.6</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="28">
         <v>0.6</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="28">
         <v>0.6</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="28">
         <v>0.6</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="28">
         <v>0.6</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="28">
         <v>0.6</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="28">
         <v>0.6</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="28">
         <v>0.8</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="28">
         <v>0.4</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="28">
         <v>2.4</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="28">
         <v>1.6</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="28">
         <v>2.6</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="28">
         <v>2.6</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="28">
         <v>2</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="28">
         <v>0.4</v>
       </c>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="32">
+        <v>22</v>
+      </c>
+      <c r="B12" s="28">
         <v>0.40500000000000003</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="28">
         <v>0.63600000000000001</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>0.63100000000000001</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="28">
         <v>0.626</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="28">
         <v>0.64700000000000002</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="28">
         <v>0.65600000000000003</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="28">
         <v>0.63800000000000001</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="28">
         <v>0.65700000000000003</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="28">
         <v>0.626</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="28">
         <v>0.63800000000000001</v>
       </c>
-      <c r="L12" s="32">
-        <v>0</v>
-      </c>
-      <c r="M12" s="32">
-        <v>0</v>
-      </c>
-      <c r="N12" s="32">
-        <v>0</v>
-      </c>
-      <c r="O12" s="32">
-        <v>0</v>
-      </c>
-      <c r="P12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="32">
+      <c r="L12" s="28">
+        <v>0</v>
+      </c>
+      <c r="M12" s="28">
+        <v>0</v>
+      </c>
+      <c r="N12" s="28">
+        <v>0</v>
+      </c>
+      <c r="O12" s="28">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="28">
         <v>0.62</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="28">
         <v>0.437</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="32">
+        <v>23</v>
+      </c>
+      <c r="B13" s="28">
         <v>18.768000000000001</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="28">
         <v>18.867999999999999</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="28">
         <v>17.38</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="28">
         <v>17.986000000000001</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="28">
         <v>18.123999999999999</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="28">
         <v>18.46</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="28">
         <v>16.942</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="28">
         <v>18.852</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="28">
         <v>18.82</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="28">
         <v>19.649999999999999</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="28">
         <v>18.010000000000002</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="28">
         <v>16.954999999999998</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="28">
         <v>17.831</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="28">
         <v>18.055</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="28">
         <v>17.716000000000001</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="28">
         <v>17.53</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="28">
         <v>17.882000000000001</v>
       </c>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="32">
-        <v>0</v>
-      </c>
-      <c r="C14" s="32">
-        <v>0</v>
-      </c>
-      <c r="D14" s="32">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
-        <v>0</v>
-      </c>
-      <c r="F14" s="32">
-        <v>0</v>
-      </c>
-      <c r="G14" s="32">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32">
-        <v>0</v>
-      </c>
-      <c r="I14" s="32">
-        <v>0</v>
-      </c>
-      <c r="J14" s="32">
-        <v>0</v>
-      </c>
-      <c r="K14" s="32">
-        <v>0</v>
-      </c>
-      <c r="L14" s="32">
-        <v>0</v>
-      </c>
-      <c r="M14" s="32">
-        <v>0</v>
-      </c>
-      <c r="N14" s="32">
-        <v>0</v>
-      </c>
-      <c r="O14" s="32">
-        <v>0</v>
-      </c>
-      <c r="P14" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>0</v>
-      </c>
-      <c r="R14" s="32">
-        <v>0</v>
-      </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
+        <v>24</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <v>0</v>
+      </c>
+      <c r="K14" s="28">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <v>0</v>
+      </c>
+      <c r="N14" s="28">
+        <v>0</v>
+      </c>
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>0</v>
+      </c>
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="32">
-        <v>0</v>
-      </c>
-      <c r="C15" s="32">
-        <v>0</v>
-      </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0</v>
-      </c>
-      <c r="I15" s="32">
-        <v>0</v>
-      </c>
-      <c r="J15" s="32">
-        <v>0</v>
-      </c>
-      <c r="K15" s="32">
-        <v>0</v>
-      </c>
-      <c r="L15" s="32">
-        <v>0</v>
-      </c>
-      <c r="M15" s="32">
-        <v>0</v>
-      </c>
-      <c r="N15" s="32">
-        <v>0</v>
-      </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-      <c r="P15" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>0</v>
-      </c>
-      <c r="R15" s="32">
-        <v>0</v>
-      </c>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
+        <v>25</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
+        <v>0</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="28">
+        <v>0</v>
+      </c>
+      <c r="M15" s="28">
+        <v>0</v>
+      </c>
+      <c r="N15" s="28">
+        <v>0</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>0</v>
+      </c>
+      <c r="R15" s="28">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="32">
+        <v>26</v>
+      </c>
+      <c r="B16" s="28">
         <v>2.1349999999999998</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="32">
         <v>2.14</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="28">
         <v>2.7029999999999998</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="28">
         <v>2.4</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="28">
         <v>2.7</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="28">
         <v>2.7</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="28">
         <v>1.8</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="28">
         <v>2.48</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="28">
         <v>2.56</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="28">
         <v>1.5</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="28">
         <v>1.64</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="28">
         <v>4.6050000000000004</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="28">
         <v>1.24</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="28">
         <v>1.55</v>
       </c>
-      <c r="P16" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>0</v>
-      </c>
-      <c r="R16" s="32">
-        <v>0</v>
-      </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
+      <c r="P16" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>0</v>
+      </c>
+      <c r="R16" s="28">
+        <v>0</v>
+      </c>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="32">
+        <v>27</v>
+      </c>
+      <c r="B17" s="28">
         <f>(9.15+3.75)</f>
         <v>12.9</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="28">
         <f>(10.378+2.985)</f>
         <v>13.363</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="28">
         <f>(10.432+3.75)</f>
         <v>14.182</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="28">
         <f>(10.466+3.76)</f>
         <v>14.225999999999999</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="28">
         <f>(10.49+2.94)</f>
         <v>13.43</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="28">
         <f>(9.36+2.5)</f>
         <v>11.86</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="28">
         <f>(9.77+2.57)</f>
         <v>12.34</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="28">
         <f>(10.69+2.54)</f>
         <v>13.23</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="28">
         <f>(10.635+2.16)</f>
         <v>12.795</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="28">
         <f>(10.59+3.815)</f>
         <v>14.404999999999999</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="28">
         <f>(10.28+3.78)</f>
         <v>14.059999999999999</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="28">
         <f>(9.91+3.805)</f>
         <v>13.715</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="28">
         <f>(10.181+4.59)</f>
         <v>14.770999999999999</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="28">
         <f>(9.855+4.28)</f>
         <v>14.135000000000002</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="28">
         <f>(9.815+4.245)</f>
         <v>14.059999999999999</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="28">
         <f>(9.48+4.68)</f>
         <v>14.16</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="28">
         <f>(10.185+4.74)</f>
         <v>14.925000000000001</v>
       </c>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="32">
+        <v>28</v>
+      </c>
+      <c r="B18" s="28">
         <v>4.452</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="28">
         <v>5.1559999999999997</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="28">
         <v>5.76</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="28">
         <v>5.14</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="28">
         <v>5.5330000000000004</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="28">
         <v>5.23</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="28">
         <v>5.2560000000000002</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="28">
         <v>4.9260000000000002</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="28">
         <v>5.38</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="28">
         <v>3.81</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="28">
         <v>3.4</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="28">
         <v>1.95</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="28">
         <v>2.9</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="28">
         <v>3.22</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="28">
         <v>5.4249999999999998</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="28">
         <v>4.45</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="28">
         <v>4.75</v>
       </c>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="32">
-        <v>0</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
-        <v>0</v>
-      </c>
-      <c r="F19" s="32">
-        <v>0</v>
-      </c>
-      <c r="G19" s="32">
-        <v>0</v>
-      </c>
-      <c r="H19" s="32">
-        <v>0</v>
-      </c>
-      <c r="I19" s="32">
-        <v>0</v>
-      </c>
-      <c r="J19" s="32">
-        <v>0</v>
-      </c>
-      <c r="K19" s="32">
-        <v>0</v>
-      </c>
-      <c r="L19" s="32">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
-        <v>0</v>
-      </c>
-      <c r="N19" s="32">
-        <v>0</v>
-      </c>
-      <c r="O19" s="32">
-        <v>0</v>
-      </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="32">
-        <v>0</v>
-      </c>
-      <c r="R19" s="32">
-        <v>0</v>
-      </c>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28">
+        <v>0</v>
+      </c>
+      <c r="K19" s="28">
+        <v>0</v>
+      </c>
+      <c r="L19" s="28">
+        <v>0</v>
+      </c>
+      <c r="M19" s="28">
+        <v>0</v>
+      </c>
+      <c r="N19" s="28">
+        <v>0</v>
+      </c>
+      <c r="O19" s="28">
+        <v>0</v>
+      </c>
+      <c r="P19" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>0</v>
+      </c>
+      <c r="R19" s="28">
+        <v>0</v>
+      </c>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="32">
+        <v>30</v>
+      </c>
+      <c r="B20" s="28">
         <v>1.59</v>
       </c>
-      <c r="C20" s="32">
-        <v>0</v>
-      </c>
-      <c r="D20" s="32">
-        <v>0</v>
-      </c>
-      <c r="E20" s="32">
-        <v>0</v>
-      </c>
-      <c r="F20" s="32">
-        <v>0</v>
-      </c>
-      <c r="G20" s="32">
+      <c r="C20" s="28">
+        <v>0</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="32">
-        <v>0</v>
-      </c>
-      <c r="I20" s="32">
-        <v>0</v>
-      </c>
-      <c r="J20" s="32">
+      <c r="H20" s="28">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
         <v>0.54</v>
       </c>
-      <c r="K20" s="32">
-        <v>0</v>
-      </c>
-      <c r="L20" s="32">
+      <c r="K20" s="28">
+        <v>0</v>
+      </c>
+      <c r="L20" s="28">
         <v>0.54</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="28">
         <v>1.08</v>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="28">
         <v>2.14</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="28">
         <v>1.6</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="32">
-        <v>0</v>
-      </c>
-      <c r="C21" s="32">
-        <v>0</v>
-      </c>
-      <c r="D21" s="32">
-        <v>0</v>
-      </c>
-      <c r="E21" s="32">
-        <v>0</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0</v>
-      </c>
-      <c r="G21" s="32">
-        <v>0</v>
-      </c>
-      <c r="H21" s="32">
-        <v>0</v>
-      </c>
-      <c r="I21" s="32">
-        <v>0</v>
-      </c>
-      <c r="J21" s="32">
-        <v>0</v>
-      </c>
-      <c r="K21" s="32">
-        <v>0</v>
-      </c>
-      <c r="L21" s="32">
-        <v>0</v>
-      </c>
-      <c r="M21" s="32">
-        <v>0</v>
-      </c>
-      <c r="N21" s="32">
-        <v>0</v>
-      </c>
-      <c r="O21" s="32">
-        <v>0</v>
-      </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="32">
-        <v>0</v>
-      </c>
-      <c r="R21" s="32">
-        <v>0</v>
-      </c>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="28">
+        <v>0</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0</v>
+      </c>
+      <c r="J21" s="28">
+        <v>0</v>
+      </c>
+      <c r="K21" s="28">
+        <v>0</v>
+      </c>
+      <c r="L21" s="28">
+        <v>0</v>
+      </c>
+      <c r="M21" s="28">
+        <v>0</v>
+      </c>
+      <c r="N21" s="28">
+        <v>0</v>
+      </c>
+      <c r="O21" s="28">
+        <v>0</v>
+      </c>
+      <c r="P21" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28">
+        <v>0</v>
+      </c>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="32">
-        <v>0</v>
-      </c>
-      <c r="C22" s="32">
-        <v>0</v>
-      </c>
-      <c r="D22" s="32">
-        <v>0</v>
-      </c>
-      <c r="E22" s="32">
-        <v>0</v>
-      </c>
-      <c r="F22" s="32">
-        <v>0</v>
-      </c>
-      <c r="G22" s="32">
-        <v>0</v>
-      </c>
-      <c r="H22" s="32">
-        <v>0</v>
-      </c>
-      <c r="I22" s="32">
-        <v>0</v>
-      </c>
-      <c r="J22" s="32">
-        <v>0</v>
-      </c>
-      <c r="K22" s="32">
-        <v>0</v>
-      </c>
-      <c r="L22" s="32">
-        <v>0</v>
-      </c>
-      <c r="M22" s="32">
-        <v>0</v>
-      </c>
-      <c r="N22" s="32">
-        <v>0</v>
-      </c>
-      <c r="O22" s="32">
-        <v>0</v>
-      </c>
-      <c r="P22" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="32">
-        <v>0</v>
-      </c>
-      <c r="R22" s="32">
-        <v>0</v>
-      </c>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="B22" s="28">
+        <v>0</v>
+      </c>
+      <c r="C22" s="28">
+        <v>0</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28">
+        <v>0</v>
+      </c>
+      <c r="K22" s="28">
+        <v>0</v>
+      </c>
+      <c r="L22" s="28">
+        <v>0</v>
+      </c>
+      <c r="M22" s="28">
+        <v>0</v>
+      </c>
+      <c r="N22" s="28">
+        <v>0</v>
+      </c>
+      <c r="O22" s="28">
+        <v>0</v>
+      </c>
+      <c r="P22" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>0</v>
+      </c>
+      <c r="R22" s="28">
+        <v>0</v>
+      </c>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
     </row>
     <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="32">
-        <v>0</v>
-      </c>
-      <c r="C23" s="32">
-        <v>0</v>
-      </c>
-      <c r="D23" s="32">
-        <v>0</v>
-      </c>
-      <c r="E23" s="32">
-        <v>0</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="32">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32">
-        <v>0</v>
-      </c>
-      <c r="I23" s="32">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>0</v>
-      </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="32">
-        <v>0</v>
-      </c>
-      <c r="M23" s="32">
-        <v>0</v>
-      </c>
-      <c r="N23" s="32">
-        <v>0</v>
-      </c>
-      <c r="O23" s="32">
-        <v>0</v>
-      </c>
-      <c r="P23" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="32">
-        <v>0</v>
-      </c>
-      <c r="R23" s="32">
-        <v>0</v>
-      </c>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="B23" s="28">
+        <v>0</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0</v>
+      </c>
+      <c r="J23" s="28">
+        <v>0</v>
+      </c>
+      <c r="K23" s="28">
+        <v>0</v>
+      </c>
+      <c r="L23" s="28">
+        <v>0</v>
+      </c>
+      <c r="M23" s="28">
+        <v>0</v>
+      </c>
+      <c r="N23" s="28">
+        <v>0</v>
+      </c>
+      <c r="O23" s="28">
+        <v>0</v>
+      </c>
+      <c r="P23" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>0</v>
+      </c>
+      <c r="R23" s="28">
+        <v>0</v>
+      </c>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="32">
+        <v>34</v>
+      </c>
+      <c r="B24" s="28">
         <v>3.16</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="28">
         <v>3.3650000000000002</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="28">
         <v>3.19</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="28">
         <v>3.2</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="28">
         <v>3.28</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="28">
         <v>3.738</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="28">
         <v>3.27</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="28">
         <v>3.2970000000000002</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="28">
         <v>2.77</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="28">
         <v>3.31</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="28">
         <v>3.38</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="28">
         <v>3.39</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="28">
         <v>3.3</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="28">
         <v>3.45</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="28">
         <v>2.19</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="28">
         <v>3.3</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="28">
         <v>3.2949999999999999</v>
       </c>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="32">
+        <v>35</v>
+      </c>
+      <c r="B25" s="28">
         <v>0.92</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="28">
         <v>0.94</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="28">
         <v>0.92</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="28">
         <v>0.92</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="28">
         <v>0.9</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="28">
         <v>0.9</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="28">
         <v>0.94</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="28">
         <v>0.96</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="28">
         <v>0.94</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="28">
         <v>0.93</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="28">
         <v>0.99</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="28">
         <v>0.95</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="28">
         <v>0.94</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="28">
         <v>0.94</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="28">
         <v>0.95</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="28">
         <v>0.96499999999999997</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="28">
         <v>0.9</v>
       </c>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -12179,7 +12152,7 @@
     <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" ref="B30:AC30" si="5">B6-B28</f>
@@ -12295,15 +12268,15 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3">
         <v>0.77700000000000002</v>
@@ -12356,20 +12329,20 @@
       <c r="R33" s="3">
         <v>0.79100000000000004</v>
       </c>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="29"/>
+      <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -12489,15 +12462,15 @@
       </c>
     </row>
     <row r="37" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="A37" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>1.056</v>
@@ -12558,21 +12531,21 @@
         <f>(264+466+262)/1000</f>
         <v>0.99199999999999999</v>
       </c>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -12639,7 +12612,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>28.581</v>
@@ -12692,21 +12665,21 @@
       <c r="R40" s="2">
         <v>29.491</v>
       </c>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>1.605</v>
@@ -12759,21 +12732,21 @@
       <c r="R41" s="2">
         <v>1.605</v>
       </c>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>0.65700000000000003</v>
@@ -12826,21 +12799,21 @@
       <c r="R42" s="2">
         <v>0.73699999999999999</v>
       </c>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>7.3999999999999996E-2</v>
@@ -12893,17 +12866,17 @@
       <c r="R43" s="2">
         <v>0.108</v>
       </c>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13026,7 +12999,7 @@
     <row r="47" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3">
         <f t="shared" ref="B48:AC48" si="8">B28-B35-B46</f>
@@ -13142,17 +13115,17 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C49" s="30"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="51" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
+      <c r="A51" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="28"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -13176,1107 +13149,1107 @@
     </row>
     <row r="52" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="32">
-        <v>0</v>
-      </c>
-      <c r="C52" s="32">
-        <v>0</v>
-      </c>
-      <c r="D52" s="32">
-        <v>0</v>
-      </c>
-      <c r="E52" s="32">
-        <v>0</v>
-      </c>
-      <c r="F52" s="36">
-        <v>0</v>
-      </c>
-      <c r="G52" s="32">
-        <v>0</v>
-      </c>
-      <c r="H52" s="32">
-        <v>0</v>
-      </c>
-      <c r="I52" s="32">
-        <v>0</v>
-      </c>
-      <c r="J52" s="32">
-        <v>0</v>
-      </c>
-      <c r="K52" s="32">
-        <v>0</v>
-      </c>
-      <c r="L52" s="32">
-        <v>0</v>
-      </c>
-      <c r="M52" s="32">
-        <v>0</v>
-      </c>
-      <c r="N52" s="32">
-        <v>0</v>
-      </c>
-      <c r="O52" s="32">
-        <v>0</v>
-      </c>
-      <c r="P52" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="32">
-        <v>0</v>
-      </c>
-      <c r="R52" s="32">
-        <v>0</v>
-      </c>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
+        <v>47</v>
+      </c>
+      <c r="B52" s="28">
+        <v>0</v>
+      </c>
+      <c r="C52" s="28">
+        <v>0</v>
+      </c>
+      <c r="D52" s="28">
+        <v>0</v>
+      </c>
+      <c r="E52" s="28">
+        <v>0</v>
+      </c>
+      <c r="F52" s="32">
+        <v>0</v>
+      </c>
+      <c r="G52" s="28">
+        <v>0</v>
+      </c>
+      <c r="H52" s="28">
+        <v>0</v>
+      </c>
+      <c r="I52" s="28">
+        <v>0</v>
+      </c>
+      <c r="J52" s="28">
+        <v>0</v>
+      </c>
+      <c r="K52" s="28">
+        <v>0</v>
+      </c>
+      <c r="L52" s="28">
+        <v>0</v>
+      </c>
+      <c r="M52" s="28">
+        <v>0</v>
+      </c>
+      <c r="N52" s="28">
+        <v>0</v>
+      </c>
+      <c r="O52" s="28">
+        <v>0</v>
+      </c>
+      <c r="P52" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="28">
+        <v>0</v>
+      </c>
+      <c r="R52" s="28">
+        <v>0</v>
+      </c>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="32">
-        <v>0</v>
-      </c>
-      <c r="C53" s="32">
-        <v>0</v>
-      </c>
-      <c r="D53" s="32">
-        <v>0</v>
-      </c>
-      <c r="E53" s="32">
-        <v>0</v>
-      </c>
-      <c r="F53" s="32">
-        <v>0</v>
-      </c>
-      <c r="G53" s="32">
-        <v>0</v>
-      </c>
-      <c r="H53" s="32">
-        <v>0</v>
-      </c>
-      <c r="I53" s="32">
-        <v>0</v>
-      </c>
-      <c r="J53" s="32">
-        <v>0</v>
-      </c>
-      <c r="K53" s="32">
-        <v>0</v>
-      </c>
-      <c r="L53" s="32">
-        <v>0</v>
-      </c>
-      <c r="M53" s="32">
-        <v>0</v>
-      </c>
-      <c r="N53" s="32">
-        <v>0</v>
-      </c>
-      <c r="O53" s="32">
-        <v>0</v>
-      </c>
-      <c r="P53" s="32">
+        <v>74</v>
+      </c>
+      <c r="B53" s="28">
+        <v>0</v>
+      </c>
+      <c r="C53" s="28">
+        <v>0</v>
+      </c>
+      <c r="D53" s="28">
+        <v>0</v>
+      </c>
+      <c r="E53" s="28">
+        <v>0</v>
+      </c>
+      <c r="F53" s="28">
+        <v>0</v>
+      </c>
+      <c r="G53" s="28">
+        <v>0</v>
+      </c>
+      <c r="H53" s="28">
+        <v>0</v>
+      </c>
+      <c r="I53" s="28">
+        <v>0</v>
+      </c>
+      <c r="J53" s="28">
+        <v>0</v>
+      </c>
+      <c r="K53" s="28">
+        <v>0</v>
+      </c>
+      <c r="L53" s="28">
+        <v>0</v>
+      </c>
+      <c r="M53" s="28">
+        <v>0</v>
+      </c>
+      <c r="N53" s="28">
+        <v>0</v>
+      </c>
+      <c r="O53" s="28">
+        <v>0</v>
+      </c>
+      <c r="P53" s="28">
         <v>4.5</v>
       </c>
-      <c r="Q53" s="32">
+      <c r="Q53" s="28">
         <v>5</v>
       </c>
-      <c r="R53" s="32">
+      <c r="R53" s="28">
         <v>5</v>
       </c>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="32">
+        <v>48</v>
+      </c>
+      <c r="B54" s="28">
         <v>2.5</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="28">
         <v>2</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="28">
         <v>1</v>
       </c>
-      <c r="E54" s="32">
-        <v>0</v>
-      </c>
-      <c r="F54" s="32">
-        <v>0</v>
-      </c>
-      <c r="G54" s="32">
-        <v>0</v>
-      </c>
-      <c r="H54" s="32">
-        <v>0</v>
-      </c>
-      <c r="I54" s="32">
+      <c r="E54" s="28">
+        <v>0</v>
+      </c>
+      <c r="F54" s="28">
+        <v>0</v>
+      </c>
+      <c r="G54" s="28">
+        <v>0</v>
+      </c>
+      <c r="H54" s="28">
+        <v>0</v>
+      </c>
+      <c r="I54" s="28">
         <v>0.5</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J54" s="28">
         <v>0.3</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="28">
         <v>1</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="28">
         <v>2</v>
       </c>
-      <c r="M54" s="32">
+      <c r="M54" s="28">
         <v>3.5</v>
       </c>
-      <c r="N54" s="32">
+      <c r="N54" s="28">
         <v>2</v>
       </c>
-      <c r="O54" s="32">
+      <c r="O54" s="28">
         <v>2.5</v>
       </c>
-      <c r="P54" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="32">
-        <v>0</v>
-      </c>
-      <c r="R54" s="32">
-        <v>0</v>
-      </c>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="32"/>
-      <c r="AA54" s="32"/>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
+      <c r="P54" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="28">
+        <v>0</v>
+      </c>
+      <c r="R54" s="28">
+        <v>0</v>
+      </c>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
     </row>
     <row r="55" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="32">
+        <v>49</v>
+      </c>
+      <c r="B55" s="28">
         <v>0.75</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="28">
         <v>1.08</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="28">
         <v>0.5</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="28">
         <v>0.4</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="28">
         <v>0.60499999999999998</v>
       </c>
-      <c r="G55" s="32">
+      <c r="G55" s="28">
         <v>0.5</v>
       </c>
-      <c r="H55" s="32">
+      <c r="H55" s="28">
         <v>0.2</v>
       </c>
-      <c r="I55" s="32">
+      <c r="I55" s="28">
         <v>0.5</v>
       </c>
-      <c r="J55" s="32">
+      <c r="J55" s="28">
         <v>0.3</v>
       </c>
-      <c r="K55" s="32">
+      <c r="K55" s="28">
         <v>0.5</v>
       </c>
-      <c r="L55" s="32">
+      <c r="L55" s="28">
         <v>0.25</v>
       </c>
-      <c r="M55" s="32">
+      <c r="M55" s="28">
         <v>0.25</v>
       </c>
-      <c r="N55" s="32">
+      <c r="N55" s="28">
         <v>0.4</v>
       </c>
-      <c r="O55" s="32">
+      <c r="O55" s="28">
         <v>0.5</v>
       </c>
-      <c r="P55" s="32">
+      <c r="P55" s="28">
         <v>0.25</v>
       </c>
-      <c r="Q55" s="32">
+      <c r="Q55" s="28">
         <v>0.4</v>
       </c>
-      <c r="R55" s="32">
+      <c r="R55" s="28">
         <v>0.6</v>
       </c>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32"/>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="32"/>
-      <c r="AC55" s="32"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
     </row>
     <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="32">
+        <v>50</v>
+      </c>
+      <c r="B56" s="28">
         <v>9.5</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="28">
         <v>9</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="28">
         <v>9.5</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="28">
         <v>9</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="28">
         <v>8</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="28">
         <v>4.5</v>
       </c>
-      <c r="H56" s="32">
+      <c r="H56" s="28">
         <v>4</v>
       </c>
-      <c r="I56" s="32">
+      <c r="I56" s="28">
         <v>3.5</v>
       </c>
-      <c r="J56" s="32">
+      <c r="J56" s="28">
         <v>3.5</v>
       </c>
-      <c r="K56" s="32">
+      <c r="K56" s="28">
         <v>3.9</v>
       </c>
-      <c r="L56" s="32">
+      <c r="L56" s="28">
         <v>3.5</v>
       </c>
-      <c r="M56" s="32">
+      <c r="M56" s="28">
         <v>3.5</v>
       </c>
-      <c r="N56" s="32">
+      <c r="N56" s="28">
         <v>7</v>
       </c>
-      <c r="O56" s="32">
+      <c r="O56" s="28">
         <v>8</v>
       </c>
-      <c r="P56" s="32">
+      <c r="P56" s="28">
         <v>7.5</v>
       </c>
-      <c r="Q56" s="32">
+      <c r="Q56" s="28">
         <v>9</v>
       </c>
-      <c r="R56" s="32">
+      <c r="R56" s="28">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="32"/>
-      <c r="AB56" s="32"/>
-      <c r="AC56" s="32"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
     </row>
     <row r="57" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="32">
+        <v>51</v>
+      </c>
+      <c r="B57" s="28">
         <v>14.75</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="28">
         <v>16</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="28">
         <v>17</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="28">
         <v>19</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="28">
         <v>19.5</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="28">
         <v>21.5</v>
       </c>
-      <c r="H57" s="32">
+      <c r="H57" s="28">
         <v>22.5</v>
       </c>
-      <c r="I57" s="32">
+      <c r="I57" s="28">
         <v>22.5</v>
       </c>
-      <c r="J57" s="32">
+      <c r="J57" s="28">
         <v>23.4</v>
       </c>
-      <c r="K57" s="32">
+      <c r="K57" s="28">
         <v>22</v>
       </c>
-      <c r="L57" s="32">
+      <c r="L57" s="28">
         <v>25</v>
       </c>
-      <c r="M57" s="32">
+      <c r="M57" s="28">
         <v>25</v>
       </c>
-      <c r="N57" s="32">
+      <c r="N57" s="28">
         <v>27.5</v>
       </c>
-      <c r="O57" s="32">
+      <c r="O57" s="28">
         <v>29</v>
       </c>
-      <c r="P57" s="32">
+      <c r="P57" s="28">
         <v>28.75</v>
       </c>
-      <c r="Q57" s="32">
+      <c r="Q57" s="28">
         <v>26.195</v>
       </c>
-      <c r="R57" s="32">
+      <c r="R57" s="28">
         <v>26.195</v>
       </c>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="32"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="32"/>
-      <c r="Z57" s="32"/>
-      <c r="AA57" s="32"/>
-      <c r="AB57" s="32"/>
-      <c r="AC57" s="32"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
     </row>
     <row r="58" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="32">
+        <v>52</v>
+      </c>
+      <c r="B58" s="28">
         <v>74.290999999999997</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="28">
         <v>67.447000000000003</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="28">
         <v>73.206999999999994</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="28">
         <v>66.656999999999996</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="28">
         <v>66.069999999999993</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="28">
         <v>71.44</v>
       </c>
-      <c r="H58" s="32">
+      <c r="H58" s="28">
         <v>76.695999999999998</v>
       </c>
-      <c r="I58" s="32">
+      <c r="I58" s="28">
         <v>70.322000000000003</v>
       </c>
-      <c r="J58" s="32">
+      <c r="J58" s="28">
         <v>75.701999999999998</v>
       </c>
-      <c r="K58" s="32">
+      <c r="K58" s="28">
         <v>79.512</v>
       </c>
-      <c r="L58" s="32">
+      <c r="L58" s="28">
         <v>82.912000000000006</v>
       </c>
-      <c r="M58" s="32">
+      <c r="M58" s="28">
         <v>73.281999999999996</v>
       </c>
-      <c r="N58" s="32">
+      <c r="N58" s="28">
         <v>76.182000000000002</v>
       </c>
-      <c r="O58" s="32">
+      <c r="O58" s="28">
         <v>79.402000000000001</v>
       </c>
-      <c r="P58" s="32">
+      <c r="P58" s="28">
         <v>84.826999999999998</v>
       </c>
-      <c r="Q58" s="32">
+      <c r="Q58" s="28">
         <v>77.947000000000003</v>
       </c>
-      <c r="R58" s="32">
+      <c r="R58" s="28">
         <v>82.697000000000003</v>
       </c>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="32"/>
-      <c r="Z58" s="32"/>
-      <c r="AA58" s="32"/>
-      <c r="AB58" s="32"/>
-      <c r="AC58" s="32"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
     </row>
     <row r="59" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="32">
-        <v>0</v>
-      </c>
-      <c r="C59" s="32">
-        <v>0</v>
-      </c>
-      <c r="D59" s="32">
-        <v>0</v>
-      </c>
-      <c r="E59" s="32">
-        <v>0</v>
-      </c>
-      <c r="F59" s="32">
-        <v>0</v>
-      </c>
-      <c r="G59" s="32">
-        <v>0</v>
-      </c>
-      <c r="H59" s="32">
-        <v>0</v>
-      </c>
-      <c r="I59" s="37">
-        <v>0</v>
-      </c>
-      <c r="J59" s="32">
-        <v>0</v>
-      </c>
-      <c r="K59" s="32">
-        <v>0</v>
-      </c>
-      <c r="L59" s="32">
-        <v>0</v>
-      </c>
-      <c r="M59" s="32">
-        <v>0</v>
-      </c>
-      <c r="N59" s="32">
-        <v>0</v>
-      </c>
-      <c r="O59" s="32">
-        <v>0</v>
-      </c>
-      <c r="P59" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="32">
-        <v>0</v>
-      </c>
-      <c r="R59" s="32">
-        <v>0</v>
-      </c>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32"/>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="32"/>
-      <c r="AC59" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="B59" s="28">
+        <v>0</v>
+      </c>
+      <c r="C59" s="28">
+        <v>0</v>
+      </c>
+      <c r="D59" s="28">
+        <v>0</v>
+      </c>
+      <c r="E59" s="28">
+        <v>0</v>
+      </c>
+      <c r="F59" s="28">
+        <v>0</v>
+      </c>
+      <c r="G59" s="28">
+        <v>0</v>
+      </c>
+      <c r="H59" s="28">
+        <v>0</v>
+      </c>
+      <c r="I59" s="33">
+        <v>0</v>
+      </c>
+      <c r="J59" s="28">
+        <v>0</v>
+      </c>
+      <c r="K59" s="28">
+        <v>0</v>
+      </c>
+      <c r="L59" s="28">
+        <v>0</v>
+      </c>
+      <c r="M59" s="28">
+        <v>0</v>
+      </c>
+      <c r="N59" s="28">
+        <v>0</v>
+      </c>
+      <c r="O59" s="28">
+        <v>0</v>
+      </c>
+      <c r="P59" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="28">
+        <v>0</v>
+      </c>
+      <c r="R59" s="28">
+        <v>0</v>
+      </c>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
     </row>
     <row r="60" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="32">
-        <v>0</v>
-      </c>
-      <c r="C60" s="32">
-        <v>0</v>
-      </c>
-      <c r="D60" s="32">
-        <v>0</v>
-      </c>
-      <c r="E60" s="32">
-        <v>0</v>
-      </c>
-      <c r="F60" s="32">
-        <v>0</v>
-      </c>
-      <c r="G60" s="32">
-        <v>0</v>
-      </c>
-      <c r="H60" s="32">
-        <v>0</v>
-      </c>
-      <c r="I60" s="32">
-        <v>0</v>
-      </c>
-      <c r="J60" s="32">
-        <v>0</v>
-      </c>
-      <c r="K60" s="32">
-        <v>0</v>
-      </c>
-      <c r="L60" s="32">
-        <v>0</v>
-      </c>
-      <c r="M60" s="32">
-        <v>0</v>
-      </c>
-      <c r="N60" s="32">
-        <v>0</v>
-      </c>
-      <c r="O60" s="32">
-        <v>0</v>
-      </c>
-      <c r="P60" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="32">
-        <v>0</v>
-      </c>
-      <c r="R60" s="32">
-        <v>0</v>
-      </c>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="32"/>
-      <c r="W60" s="32"/>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="32"/>
-      <c r="AB60" s="32"/>
-      <c r="AC60" s="32"/>
+        <v>54</v>
+      </c>
+      <c r="B60" s="28">
+        <v>0</v>
+      </c>
+      <c r="C60" s="28">
+        <v>0</v>
+      </c>
+      <c r="D60" s="28">
+        <v>0</v>
+      </c>
+      <c r="E60" s="28">
+        <v>0</v>
+      </c>
+      <c r="F60" s="28">
+        <v>0</v>
+      </c>
+      <c r="G60" s="28">
+        <v>0</v>
+      </c>
+      <c r="H60" s="28">
+        <v>0</v>
+      </c>
+      <c r="I60" s="28">
+        <v>0</v>
+      </c>
+      <c r="J60" s="28">
+        <v>0</v>
+      </c>
+      <c r="K60" s="28">
+        <v>0</v>
+      </c>
+      <c r="L60" s="28">
+        <v>0</v>
+      </c>
+      <c r="M60" s="28">
+        <v>0</v>
+      </c>
+      <c r="N60" s="28">
+        <v>0</v>
+      </c>
+      <c r="O60" s="28">
+        <v>0</v>
+      </c>
+      <c r="P60" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="28">
+        <v>0</v>
+      </c>
+      <c r="R60" s="28">
+        <v>0</v>
+      </c>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="32">
+        <v>55</v>
+      </c>
+      <c r="B61" s="28">
         <v>26.318000000000001</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="28">
         <v>29.683</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="28">
         <v>20.873000000000001</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="28">
         <v>24.073</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="28">
         <v>18.353000000000002</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="28">
         <v>22.091000000000001</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="28">
         <v>25.361000000000001</v>
       </c>
-      <c r="I61" s="38">
+      <c r="I61" s="34">
         <v>28.658000000000001</v>
       </c>
-      <c r="J61" s="32">
+      <c r="J61" s="28">
         <v>31.428000000000001</v>
       </c>
-      <c r="K61" s="32">
+      <c r="K61" s="28">
         <v>25.738</v>
       </c>
-      <c r="L61" s="32">
+      <c r="L61" s="28">
         <v>29.117999999999999</v>
       </c>
-      <c r="M61" s="32">
+      <c r="M61" s="28">
         <v>32.508000000000003</v>
       </c>
-      <c r="N61" s="32">
+      <c r="N61" s="28">
         <v>35.808</v>
       </c>
-      <c r="O61" s="32">
+      <c r="O61" s="28">
         <v>39.258000000000003</v>
       </c>
-      <c r="P61" s="32">
+      <c r="P61" s="28">
         <v>32.448</v>
       </c>
-      <c r="Q61" s="32">
+      <c r="Q61" s="28">
         <v>23.728000000000002</v>
       </c>
-      <c r="R61" s="32">
+      <c r="R61" s="28">
         <v>15.023</v>
       </c>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="32"/>
-      <c r="Y61" s="32"/>
-      <c r="Z61" s="32"/>
-      <c r="AA61" s="32"/>
-      <c r="AB61" s="32"/>
-      <c r="AC61" s="32"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="28"/>
     </row>
     <row r="62" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="32">
+        <v>56</v>
+      </c>
+      <c r="B62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="H62" s="32">
+      <c r="H62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="I62" s="38">
+      <c r="I62" s="34">
         <v>19.225000000000001</v>
       </c>
-      <c r="J62" s="32">
+      <c r="J62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="K62" s="32">
+      <c r="K62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="L62" s="32">
+      <c r="L62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="M62" s="32">
+      <c r="M62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="N62" s="32">
+      <c r="N62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="O62" s="32">
+      <c r="O62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="P62" s="32">
+      <c r="P62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="Q62" s="32">
+      <c r="Q62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="R62" s="32">
+      <c r="R62" s="28">
         <v>19.225000000000001</v>
       </c>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="32"/>
-      <c r="W62" s="32"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="32"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="32"/>
-      <c r="AB62" s="32"/>
-      <c r="AC62" s="32"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
     </row>
     <row r="63" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="32">
-        <v>0</v>
-      </c>
-      <c r="C63" s="32">
-        <v>0</v>
-      </c>
-      <c r="D63" s="32">
-        <v>0</v>
-      </c>
-      <c r="E63" s="32">
-        <v>0</v>
-      </c>
-      <c r="F63" s="32">
-        <v>0</v>
-      </c>
-      <c r="G63" s="32">
-        <v>0</v>
-      </c>
-      <c r="H63" s="32">
-        <v>0</v>
-      </c>
-      <c r="I63" s="32">
-        <v>0</v>
-      </c>
-      <c r="J63" s="32">
-        <v>0</v>
-      </c>
-      <c r="K63" s="32">
-        <v>0</v>
-      </c>
-      <c r="L63" s="32">
-        <v>0</v>
-      </c>
-      <c r="M63" s="32">
-        <v>0</v>
-      </c>
-      <c r="N63" s="32">
-        <v>0</v>
-      </c>
-      <c r="O63" s="32">
-        <v>0</v>
-      </c>
-      <c r="P63" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="32">
-        <v>0</v>
-      </c>
-      <c r="R63" s="32">
-        <v>0</v>
-      </c>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="28">
+        <v>0</v>
+      </c>
+      <c r="C63" s="28">
+        <v>0</v>
+      </c>
+      <c r="D63" s="28">
+        <v>0</v>
+      </c>
+      <c r="E63" s="28">
+        <v>0</v>
+      </c>
+      <c r="F63" s="28">
+        <v>0</v>
+      </c>
+      <c r="G63" s="28">
+        <v>0</v>
+      </c>
+      <c r="H63" s="28">
+        <v>0</v>
+      </c>
+      <c r="I63" s="28">
+        <v>0</v>
+      </c>
+      <c r="J63" s="28">
+        <v>0</v>
+      </c>
+      <c r="K63" s="28">
+        <v>0</v>
+      </c>
+      <c r="L63" s="28">
+        <v>0</v>
+      </c>
+      <c r="M63" s="28">
+        <v>0</v>
+      </c>
+      <c r="N63" s="28">
+        <v>0</v>
+      </c>
+      <c r="O63" s="28">
+        <v>0</v>
+      </c>
+      <c r="P63" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="28">
+        <v>0</v>
+      </c>
+      <c r="R63" s="28">
+        <v>0</v>
+      </c>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
     </row>
     <row r="64" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="32">
+        <v>58</v>
+      </c>
+      <c r="B64" s="28">
         <v>1.75</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="28">
         <v>1.75</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="28">
         <v>2.25</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F64" s="28">
         <v>2.25</v>
       </c>
-      <c r="G64" s="32">
+      <c r="G64" s="28">
         <v>2.25</v>
       </c>
-      <c r="H64" s="32">
+      <c r="H64" s="28">
         <v>2.25</v>
       </c>
-      <c r="I64" s="32">
+      <c r="I64" s="28">
         <v>2.25</v>
       </c>
-      <c r="J64" s="32">
+      <c r="J64" s="28">
         <v>2.25</v>
       </c>
-      <c r="K64" s="32">
+      <c r="K64" s="28">
         <v>2.25</v>
       </c>
-      <c r="L64" s="32">
+      <c r="L64" s="28">
         <v>2.25</v>
       </c>
-      <c r="M64" s="32">
+      <c r="M64" s="28">
         <v>2.25</v>
       </c>
-      <c r="N64" s="32">
+      <c r="N64" s="28">
         <v>2.25</v>
       </c>
-      <c r="O64" s="32">
+      <c r="O64" s="28">
         <v>2.25</v>
       </c>
-      <c r="P64" s="32">
+      <c r="P64" s="28">
         <v>2.25</v>
       </c>
-      <c r="Q64" s="32">
+      <c r="Q64" s="28">
         <v>2.25</v>
       </c>
-      <c r="R64" s="32">
+      <c r="R64" s="28">
         <v>2.25</v>
       </c>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="28"/>
     </row>
     <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="32">
-        <v>0</v>
-      </c>
-      <c r="C65" s="32">
-        <v>0</v>
-      </c>
-      <c r="D65" s="32">
-        <v>0</v>
-      </c>
-      <c r="E65" s="32">
-        <v>0</v>
-      </c>
-      <c r="F65" s="32">
-        <v>0</v>
-      </c>
-      <c r="G65" s="32">
-        <v>0</v>
-      </c>
-      <c r="H65" s="32">
-        <v>0</v>
-      </c>
-      <c r="I65" s="32">
-        <v>0</v>
-      </c>
-      <c r="J65" s="32">
-        <v>0</v>
-      </c>
-      <c r="K65" s="32">
-        <v>0</v>
-      </c>
-      <c r="L65" s="32">
-        <v>0</v>
-      </c>
-      <c r="M65" s="32">
-        <v>0</v>
-      </c>
-      <c r="N65" s="32">
-        <v>0</v>
-      </c>
-      <c r="O65" s="32">
-        <v>0</v>
-      </c>
-      <c r="P65" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="32">
-        <v>0</v>
-      </c>
-      <c r="R65" s="32">
-        <v>0</v>
-      </c>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
-      <c r="AB65" s="32"/>
-      <c r="AC65" s="32"/>
+        <v>59</v>
+      </c>
+      <c r="B65" s="28">
+        <v>0</v>
+      </c>
+      <c r="C65" s="28">
+        <v>0</v>
+      </c>
+      <c r="D65" s="28">
+        <v>0</v>
+      </c>
+      <c r="E65" s="28">
+        <v>0</v>
+      </c>
+      <c r="F65" s="28">
+        <v>0</v>
+      </c>
+      <c r="G65" s="28">
+        <v>0</v>
+      </c>
+      <c r="H65" s="28">
+        <v>0</v>
+      </c>
+      <c r="I65" s="28">
+        <v>0</v>
+      </c>
+      <c r="J65" s="28">
+        <v>0</v>
+      </c>
+      <c r="K65" s="28">
+        <v>0</v>
+      </c>
+      <c r="L65" s="28">
+        <v>0</v>
+      </c>
+      <c r="M65" s="28">
+        <v>0</v>
+      </c>
+      <c r="N65" s="28">
+        <v>0</v>
+      </c>
+      <c r="O65" s="28">
+        <v>0</v>
+      </c>
+      <c r="P65" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="28">
+        <v>0</v>
+      </c>
+      <c r="R65" s="28">
+        <v>0</v>
+      </c>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
     </row>
     <row r="66" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="32">
+        <v>60</v>
+      </c>
+      <c r="B66" s="28">
         <v>9</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="28">
         <v>9</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="28">
         <v>9</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="28">
         <v>8.5</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="28">
         <v>8</v>
       </c>
-      <c r="G66" s="32">
+      <c r="G66" s="28">
         <v>8</v>
       </c>
-      <c r="H66" s="32">
+      <c r="H66" s="28">
         <v>8</v>
       </c>
-      <c r="I66" s="32">
+      <c r="I66" s="28">
         <v>7.75</v>
       </c>
-      <c r="J66" s="32">
+      <c r="J66" s="28">
         <v>8</v>
       </c>
-      <c r="K66" s="32">
+      <c r="K66" s="28">
         <v>9</v>
       </c>
-      <c r="L66" s="32">
+      <c r="L66" s="28">
         <v>7.5</v>
       </c>
-      <c r="M66" s="32">
+      <c r="M66" s="28">
         <v>8.75</v>
       </c>
-      <c r="N66" s="32">
+      <c r="N66" s="28">
         <v>6</v>
       </c>
-      <c r="O66" s="32">
+      <c r="O66" s="28">
         <v>5</v>
       </c>
-      <c r="P66" s="32">
+      <c r="P66" s="28">
         <v>5.5</v>
       </c>
-      <c r="Q66" s="32">
+      <c r="Q66" s="28">
         <v>5.75</v>
       </c>
-      <c r="R66" s="32">
+      <c r="R66" s="28">
         <v>5.75</v>
       </c>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
     </row>
     <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="32">
+        <v>61</v>
+      </c>
+      <c r="B67" s="28">
         <v>2</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="28">
         <v>2</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="28">
         <v>2</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="28">
         <v>2</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="28">
         <v>2</v>
       </c>
-      <c r="G67" s="32">
+      <c r="G67" s="28">
         <v>2</v>
       </c>
-      <c r="H67" s="32">
+      <c r="H67" s="28">
         <v>2</v>
       </c>
-      <c r="I67" s="32">
+      <c r="I67" s="28">
         <v>2</v>
       </c>
-      <c r="J67" s="32">
+      <c r="J67" s="28">
         <v>2</v>
       </c>
-      <c r="K67" s="32">
+      <c r="K67" s="28">
         <v>2</v>
       </c>
-      <c r="L67" s="32">
+      <c r="L67" s="28">
         <v>2</v>
       </c>
-      <c r="M67" s="32">
+      <c r="M67" s="28">
         <v>2</v>
       </c>
-      <c r="N67" s="32">
+      <c r="N67" s="28">
         <v>2</v>
       </c>
-      <c r="O67" s="32">
+      <c r="O67" s="28">
         <v>2</v>
       </c>
-      <c r="P67" s="32">
+      <c r="P67" s="28">
         <v>2</v>
       </c>
-      <c r="Q67" s="32">
+      <c r="Q67" s="28">
         <v>2</v>
       </c>
-      <c r="R67" s="32">
+      <c r="R67" s="28">
         <v>2</v>
       </c>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="32"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-      <c r="AB67" s="32"/>
-      <c r="AC67" s="32"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="31"/>
-      <c r="W68" s="31"/>
-      <c r="X68" s="31"/>
-      <c r="Y68" s="31"/>
-      <c r="Z68" s="31"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
     </row>
     <row r="69" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="27"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -14421,7 +14394,7 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2">
@@ -14590,11 +14563,11 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
+      <c r="A74" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -14621,673 +14594,673 @@
     </row>
     <row r="75" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="32">
+        <v>64</v>
+      </c>
+      <c r="B75" s="28">
         <v>0.9</v>
       </c>
-      <c r="C75" s="32">
+      <c r="C75" s="28">
         <v>1.0349999999999999</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="28">
         <v>1.05</v>
       </c>
-      <c r="E75" s="32">
+      <c r="E75" s="28">
         <v>0.9</v>
       </c>
-      <c r="F75" s="32">
+      <c r="F75" s="28">
         <v>0.9</v>
       </c>
-      <c r="G75" s="32">
+      <c r="G75" s="28">
         <v>0.42</v>
       </c>
-      <c r="H75" s="32">
+      <c r="H75" s="28">
         <v>0.6</v>
       </c>
-      <c r="I75" s="32">
+      <c r="I75" s="28">
         <v>0.42</v>
       </c>
-      <c r="J75" s="32">
+      <c r="J75" s="28">
         <v>0.3</v>
       </c>
-      <c r="K75" s="32">
+      <c r="K75" s="28">
         <v>0.52500000000000002</v>
       </c>
-      <c r="L75" s="32">
+      <c r="L75" s="28">
         <v>0.67500000000000004</v>
       </c>
-      <c r="M75" s="32">
+      <c r="M75" s="28">
         <v>1.05</v>
       </c>
-      <c r="N75" s="32">
+      <c r="N75" s="28">
         <v>0.93</v>
       </c>
-      <c r="O75" s="32">
+      <c r="O75" s="28">
         <v>0.72</v>
       </c>
-      <c r="P75" s="32">
+      <c r="P75" s="28">
         <v>0.72</v>
       </c>
-      <c r="Q75" s="32">
+      <c r="Q75" s="28">
         <v>0.9</v>
       </c>
-      <c r="R75" s="32">
+      <c r="R75" s="28">
         <v>0.9</v>
       </c>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32"/>
-      <c r="U75" s="32"/>
-      <c r="V75" s="32"/>
-      <c r="W75" s="32"/>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="32"/>
-      <c r="Z75" s="32"/>
-      <c r="AA75" s="32"/>
-      <c r="AB75" s="32"/>
-      <c r="AC75" s="32"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
     </row>
     <row r="76" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="32">
-        <v>0</v>
-      </c>
-      <c r="C76" s="32">
-        <v>0</v>
-      </c>
-      <c r="D76" s="32">
-        <v>0</v>
-      </c>
-      <c r="E76" s="32">
-        <v>0</v>
-      </c>
-      <c r="F76" s="32">
-        <v>0</v>
-      </c>
-      <c r="G76" s="32">
-        <v>0</v>
-      </c>
-      <c r="H76" s="32">
-        <v>0</v>
-      </c>
-      <c r="I76" s="32">
-        <v>0</v>
-      </c>
-      <c r="J76" s="32">
-        <v>0</v>
-      </c>
-      <c r="K76" s="32">
-        <v>0</v>
-      </c>
-      <c r="L76" s="32">
-        <v>0</v>
-      </c>
-      <c r="M76" s="32">
-        <v>0</v>
-      </c>
-      <c r="N76" s="32">
-        <v>0</v>
-      </c>
-      <c r="O76" s="32">
-        <v>0</v>
-      </c>
-      <c r="P76" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="32">
-        <v>0</v>
-      </c>
-      <c r="R76" s="32">
-        <v>0</v>
-      </c>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="32"/>
-      <c r="V76" s="32"/>
-      <c r="W76" s="32"/>
-      <c r="X76" s="32"/>
-      <c r="Y76" s="32"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="32"/>
-      <c r="AB76" s="32"/>
-      <c r="AC76" s="32"/>
+        <v>65</v>
+      </c>
+      <c r="B76" s="28">
+        <v>0</v>
+      </c>
+      <c r="C76" s="28">
+        <v>0</v>
+      </c>
+      <c r="D76" s="28">
+        <v>0</v>
+      </c>
+      <c r="E76" s="28">
+        <v>0</v>
+      </c>
+      <c r="F76" s="28">
+        <v>0</v>
+      </c>
+      <c r="G76" s="28">
+        <v>0</v>
+      </c>
+      <c r="H76" s="28">
+        <v>0</v>
+      </c>
+      <c r="I76" s="28">
+        <v>0</v>
+      </c>
+      <c r="J76" s="28">
+        <v>0</v>
+      </c>
+      <c r="K76" s="28">
+        <v>0</v>
+      </c>
+      <c r="L76" s="28">
+        <v>0</v>
+      </c>
+      <c r="M76" s="28">
+        <v>0</v>
+      </c>
+      <c r="N76" s="28">
+        <v>0</v>
+      </c>
+      <c r="O76" s="28">
+        <v>0</v>
+      </c>
+      <c r="P76" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="28">
+        <v>0</v>
+      </c>
+      <c r="R76" s="28">
+        <v>0</v>
+      </c>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
     </row>
     <row r="77" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="32">
+        <v>66</v>
+      </c>
+      <c r="B77" s="28">
         <v>4.2750000000000004</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="28">
         <v>4.2</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="28">
         <v>4.2750000000000004</v>
       </c>
-      <c r="E77" s="32">
+      <c r="E77" s="28">
         <v>5.0250000000000004</v>
       </c>
-      <c r="F77" s="32">
+      <c r="F77" s="28">
         <v>5.4</v>
       </c>
-      <c r="G77" s="32">
+      <c r="G77" s="28">
         <v>5.25</v>
       </c>
-      <c r="H77" s="32">
+      <c r="H77" s="28">
         <v>5.52</v>
       </c>
-      <c r="I77" s="32">
+      <c r="I77" s="28">
         <v>5.4</v>
       </c>
-      <c r="J77" s="32">
+      <c r="J77" s="28">
         <v>4.7249999999999996</v>
       </c>
-      <c r="K77" s="32">
+      <c r="K77" s="28">
         <v>4.7249999999999996</v>
       </c>
-      <c r="L77" s="32">
+      <c r="L77" s="28">
         <v>4.875</v>
       </c>
-      <c r="M77" s="32">
+      <c r="M77" s="28">
         <v>4.3499999999999996</v>
       </c>
-      <c r="N77" s="32">
+      <c r="N77" s="28">
         <v>4.6500000000000004</v>
       </c>
-      <c r="O77" s="32">
+      <c r="O77" s="28">
         <v>4.47</v>
       </c>
-      <c r="P77" s="32">
+      <c r="P77" s="28">
         <v>4.4249999999999998</v>
       </c>
-      <c r="Q77" s="32">
+      <c r="Q77" s="28">
         <v>4.6500000000000004</v>
       </c>
-      <c r="R77" s="32">
+      <c r="R77" s="28">
         <v>4.6500000000000004</v>
       </c>
-      <c r="S77" s="32"/>
-      <c r="T77" s="32"/>
-      <c r="U77" s="32"/>
-      <c r="V77" s="32"/>
-      <c r="W77" s="32"/>
-      <c r="X77" s="32"/>
-      <c r="Y77" s="32"/>
-      <c r="Z77" s="32"/>
-      <c r="AA77" s="32"/>
-      <c r="AB77" s="32"/>
-      <c r="AC77" s="32"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="28"/>
     </row>
     <row r="78" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="32">
-        <v>0</v>
-      </c>
-      <c r="C78" s="32">
-        <v>0</v>
-      </c>
-      <c r="D78" s="32">
-        <v>0</v>
-      </c>
-      <c r="E78" s="39">
-        <v>0</v>
-      </c>
-      <c r="F78" s="32">
-        <v>0</v>
-      </c>
-      <c r="G78" s="32">
-        <v>0</v>
-      </c>
-      <c r="H78" s="32">
-        <v>0</v>
-      </c>
-      <c r="I78" s="32">
-        <v>0</v>
-      </c>
-      <c r="J78" s="32">
-        <v>0</v>
-      </c>
-      <c r="K78" s="32">
-        <v>0</v>
-      </c>
-      <c r="L78" s="32">
-        <v>0</v>
-      </c>
-      <c r="M78" s="32">
-        <v>0</v>
-      </c>
-      <c r="N78" s="32">
-        <v>0</v>
-      </c>
-      <c r="O78" s="32">
-        <v>0</v>
-      </c>
-      <c r="P78" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="32">
-        <v>0</v>
-      </c>
-      <c r="R78" s="32">
-        <v>0</v>
-      </c>
-      <c r="S78" s="32"/>
-      <c r="T78" s="32"/>
-      <c r="U78" s="32"/>
-      <c r="V78" s="32"/>
-      <c r="W78" s="32"/>
-      <c r="X78" s="32"/>
-      <c r="Y78" s="32"/>
-      <c r="Z78" s="32"/>
-      <c r="AA78" s="32"/>
-      <c r="AB78" s="32"/>
-      <c r="AC78" s="32"/>
+        <v>67</v>
+      </c>
+      <c r="B78" s="28">
+        <v>0</v>
+      </c>
+      <c r="C78" s="28">
+        <v>0</v>
+      </c>
+      <c r="D78" s="28">
+        <v>0</v>
+      </c>
+      <c r="E78" s="35">
+        <v>0</v>
+      </c>
+      <c r="F78" s="28">
+        <v>0</v>
+      </c>
+      <c r="G78" s="28">
+        <v>0</v>
+      </c>
+      <c r="H78" s="28">
+        <v>0</v>
+      </c>
+      <c r="I78" s="28">
+        <v>0</v>
+      </c>
+      <c r="J78" s="28">
+        <v>0</v>
+      </c>
+      <c r="K78" s="28">
+        <v>0</v>
+      </c>
+      <c r="L78" s="28">
+        <v>0</v>
+      </c>
+      <c r="M78" s="28">
+        <v>0</v>
+      </c>
+      <c r="N78" s="28">
+        <v>0</v>
+      </c>
+      <c r="O78" s="28">
+        <v>0</v>
+      </c>
+      <c r="P78" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="28">
+        <v>0</v>
+      </c>
+      <c r="R78" s="28">
+        <v>0</v>
+      </c>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="28"/>
     </row>
     <row r="79" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="32">
+        <v>68</v>
+      </c>
+      <c r="B79" s="28">
         <v>10.02</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="28">
         <v>10.02</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="28">
         <v>10.02</v>
       </c>
-      <c r="E79" s="32">
+      <c r="E79" s="28">
         <v>10.02</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="28">
         <v>10.02</v>
       </c>
-      <c r="G79" s="32">
+      <c r="G79" s="28">
         <v>10.02</v>
       </c>
-      <c r="H79" s="32">
+      <c r="H79" s="28">
         <v>10.02</v>
       </c>
-      <c r="I79" s="32">
+      <c r="I79" s="28">
         <v>10.02</v>
       </c>
-      <c r="J79" s="32">
+      <c r="J79" s="28">
         <v>10.02</v>
       </c>
-      <c r="K79" s="32">
+      <c r="K79" s="28">
         <v>10.02</v>
       </c>
-      <c r="L79" s="32">
+      <c r="L79" s="28">
         <v>10.02</v>
       </c>
-      <c r="M79" s="32">
+      <c r="M79" s="28">
         <v>10.02</v>
       </c>
-      <c r="N79" s="32">
+      <c r="N79" s="28">
         <v>10.02</v>
       </c>
-      <c r="O79" s="32">
+      <c r="O79" s="28">
         <v>10.02</v>
       </c>
-      <c r="P79" s="32">
+      <c r="P79" s="28">
         <v>10.02</v>
       </c>
-      <c r="Q79" s="32">
+      <c r="Q79" s="28">
         <v>10.02</v>
       </c>
-      <c r="R79" s="32">
+      <c r="R79" s="28">
         <v>10.02</v>
       </c>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="32"/>
-      <c r="V79" s="32"/>
-      <c r="W79" s="32"/>
-      <c r="X79" s="32"/>
-      <c r="Y79" s="32"/>
-      <c r="Z79" s="32"/>
-      <c r="AA79" s="32"/>
-      <c r="AB79" s="32"/>
-      <c r="AC79" s="32"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="28"/>
+      <c r="AC79" s="28"/>
     </row>
     <row r="80" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="32">
+        <v>69</v>
+      </c>
+      <c r="B80" s="28">
         <v>1.2</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="28">
         <v>1.47</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="28">
         <v>1.2749999999999999</v>
       </c>
-      <c r="E80" s="32">
+      <c r="E80" s="28">
         <v>1.35</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F80" s="28">
         <v>0.79500000000000004</v>
       </c>
-      <c r="G80" s="32">
+      <c r="G80" s="28">
         <v>1.7250000000000001</v>
       </c>
-      <c r="H80" s="32">
+      <c r="H80" s="28">
         <v>1.35</v>
       </c>
-      <c r="I80" s="32">
+      <c r="I80" s="28">
         <v>1.2</v>
       </c>
-      <c r="J80" s="32">
+      <c r="J80" s="28">
         <v>1.875</v>
       </c>
-      <c r="K80" s="32">
+      <c r="K80" s="28">
         <v>2.0249999999999999</v>
       </c>
-      <c r="L80" s="32">
+      <c r="L80" s="28">
         <v>1.425</v>
       </c>
-      <c r="M80" s="32">
+      <c r="M80" s="28">
         <v>1.17</v>
       </c>
-      <c r="N80" s="32">
+      <c r="N80" s="28">
         <v>0.9</v>
       </c>
-      <c r="O80" s="32">
+      <c r="O80" s="28">
         <v>0.67500000000000004</v>
       </c>
-      <c r="P80" s="32">
+      <c r="P80" s="28">
         <v>0.78</v>
       </c>
-      <c r="Q80" s="32">
+      <c r="Q80" s="28">
         <v>0.72</v>
       </c>
-      <c r="R80" s="32">
+      <c r="R80" s="28">
         <v>0.72</v>
       </c>
-      <c r="S80" s="32"/>
-      <c r="T80" s="32"/>
-      <c r="U80" s="32"/>
-      <c r="V80" s="32"/>
-      <c r="W80" s="32"/>
-      <c r="X80" s="32"/>
-      <c r="Y80" s="32"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="32"/>
-      <c r="AB80" s="32"/>
-      <c r="AC80" s="32"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="32">
-        <v>0</v>
-      </c>
-      <c r="C81" s="32">
-        <v>0</v>
-      </c>
-      <c r="D81" s="32">
-        <v>0</v>
-      </c>
-      <c r="E81" s="32">
-        <v>0</v>
-      </c>
-      <c r="F81" s="32">
-        <v>0</v>
-      </c>
-      <c r="G81" s="32">
-        <v>0</v>
-      </c>
-      <c r="H81" s="32">
-        <v>0</v>
-      </c>
-      <c r="I81" s="32">
-        <v>0</v>
-      </c>
-      <c r="J81" s="32">
-        <v>0</v>
-      </c>
-      <c r="K81" s="40">
-        <v>0</v>
-      </c>
-      <c r="L81" s="32">
-        <v>0</v>
-      </c>
-      <c r="M81" s="32">
-        <v>0</v>
-      </c>
-      <c r="N81" s="32">
-        <v>0</v>
-      </c>
-      <c r="O81" s="32">
-        <v>0</v>
-      </c>
-      <c r="P81" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="32">
-        <v>0</v>
-      </c>
-      <c r="R81" s="32">
-        <v>0</v>
-      </c>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="32"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="B81" s="28">
+        <v>0</v>
+      </c>
+      <c r="C81" s="28">
+        <v>0</v>
+      </c>
+      <c r="D81" s="28">
+        <v>0</v>
+      </c>
+      <c r="E81" s="28">
+        <v>0</v>
+      </c>
+      <c r="F81" s="28">
+        <v>0</v>
+      </c>
+      <c r="G81" s="28">
+        <v>0</v>
+      </c>
+      <c r="H81" s="28">
+        <v>0</v>
+      </c>
+      <c r="I81" s="28">
+        <v>0</v>
+      </c>
+      <c r="J81" s="28">
+        <v>0</v>
+      </c>
+      <c r="K81" s="36">
+        <v>0</v>
+      </c>
+      <c r="L81" s="28">
+        <v>0</v>
+      </c>
+      <c r="M81" s="28">
+        <v>0</v>
+      </c>
+      <c r="N81" s="28">
+        <v>0</v>
+      </c>
+      <c r="O81" s="28">
+        <v>0</v>
+      </c>
+      <c r="P81" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="28">
+        <v>0</v>
+      </c>
+      <c r="R81" s="28">
+        <v>0</v>
+      </c>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
     </row>
     <row r="82" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="32">
-        <v>0</v>
-      </c>
-      <c r="C82" s="32">
-        <v>0</v>
-      </c>
-      <c r="D82" s="32">
-        <v>0</v>
-      </c>
-      <c r="E82" s="32">
-        <v>0</v>
-      </c>
-      <c r="F82" s="32">
-        <v>0</v>
-      </c>
-      <c r="G82" s="32">
-        <v>0</v>
-      </c>
-      <c r="H82" s="32">
-        <v>0</v>
-      </c>
-      <c r="I82" s="32">
-        <v>0</v>
-      </c>
-      <c r="J82" s="32">
-        <v>0</v>
-      </c>
-      <c r="K82" s="38">
-        <v>0</v>
-      </c>
-      <c r="L82" s="32">
-        <v>0</v>
-      </c>
-      <c r="M82" s="32">
-        <v>0</v>
-      </c>
-      <c r="N82" s="32">
-        <v>0</v>
-      </c>
-      <c r="O82" s="32">
-        <v>0</v>
-      </c>
-      <c r="P82" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="32">
-        <v>0</v>
-      </c>
-      <c r="R82" s="32">
-        <v>0</v>
-      </c>
-      <c r="S82" s="32"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="32"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="32"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
+        <v>70</v>
+      </c>
+      <c r="B82" s="28">
+        <v>0</v>
+      </c>
+      <c r="C82" s="28">
+        <v>0</v>
+      </c>
+      <c r="D82" s="28">
+        <v>0</v>
+      </c>
+      <c r="E82" s="28">
+        <v>0</v>
+      </c>
+      <c r="F82" s="28">
+        <v>0</v>
+      </c>
+      <c r="G82" s="28">
+        <v>0</v>
+      </c>
+      <c r="H82" s="28">
+        <v>0</v>
+      </c>
+      <c r="I82" s="28">
+        <v>0</v>
+      </c>
+      <c r="J82" s="28">
+        <v>0</v>
+      </c>
+      <c r="K82" s="34">
+        <v>0</v>
+      </c>
+      <c r="L82" s="28">
+        <v>0</v>
+      </c>
+      <c r="M82" s="28">
+        <v>0</v>
+      </c>
+      <c r="N82" s="28">
+        <v>0</v>
+      </c>
+      <c r="O82" s="28">
+        <v>0</v>
+      </c>
+      <c r="P82" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="28">
+        <v>0</v>
+      </c>
+      <c r="R82" s="28">
+        <v>0</v>
+      </c>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="32">
+        <v>71</v>
+      </c>
+      <c r="B83" s="28">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="28">
         <v>0.28499999999999998</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="28">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E83" s="32">
+      <c r="E83" s="28">
         <v>0.105</v>
       </c>
-      <c r="F83" s="32">
+      <c r="F83" s="28">
         <v>0.73499999999999999</v>
       </c>
-      <c r="G83" s="32">
+      <c r="G83" s="28">
         <v>0.9</v>
       </c>
-      <c r="H83" s="32">
+      <c r="H83" s="28">
         <v>1.32</v>
       </c>
-      <c r="I83" s="32">
+      <c r="I83" s="28">
         <v>1.8</v>
       </c>
-      <c r="J83" s="32">
+      <c r="J83" s="28">
         <v>1.2749999999999999</v>
       </c>
-      <c r="K83" s="32">
+      <c r="K83" s="28">
         <v>1.35</v>
       </c>
-      <c r="L83" s="32">
+      <c r="L83" s="28">
         <v>1.23</v>
       </c>
-      <c r="M83" s="32">
+      <c r="M83" s="28">
         <v>1.125</v>
       </c>
-      <c r="N83" s="32">
+      <c r="N83" s="28">
         <v>0.9</v>
       </c>
-      <c r="O83" s="32">
+      <c r="O83" s="28">
         <v>0.99</v>
       </c>
-      <c r="P83" s="32">
+      <c r="P83" s="28">
         <v>1.08</v>
       </c>
-      <c r="Q83" s="32">
+      <c r="Q83" s="28">
         <v>1.1100000000000001</v>
       </c>
-      <c r="R83" s="32">
+      <c r="R83" s="28">
         <v>1.1100000000000001</v>
       </c>
-      <c r="S83" s="32"/>
-      <c r="T83" s="32"/>
-      <c r="U83" s="32"/>
-      <c r="V83" s="32"/>
-      <c r="W83" s="32"/>
-      <c r="X83" s="32"/>
-      <c r="Y83" s="32"/>
-      <c r="Z83" s="32"/>
-      <c r="AA83" s="32"/>
-      <c r="AB83" s="32"/>
-      <c r="AC83" s="32"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
     </row>
     <row r="84" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" s="32">
+        <v>72</v>
+      </c>
+      <c r="B84" s="28">
         <v>0.78</v>
       </c>
-      <c r="C84" s="32">
+      <c r="C84" s="28">
         <v>0.78</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="28">
         <v>0.78</v>
       </c>
-      <c r="E84" s="32">
+      <c r="E84" s="28">
         <v>0.78</v>
       </c>
-      <c r="F84" s="32">
+      <c r="F84" s="28">
         <v>0.78</v>
       </c>
-      <c r="G84" s="32">
+      <c r="G84" s="28">
         <v>0.78</v>
       </c>
-      <c r="H84" s="32">
+      <c r="H84" s="28">
         <v>0.78</v>
       </c>
-      <c r="I84" s="32">
+      <c r="I84" s="28">
         <v>0.78</v>
       </c>
-      <c r="J84" s="32">
+      <c r="J84" s="28">
         <v>0.78</v>
       </c>
-      <c r="K84" s="32">
+      <c r="K84" s="28">
         <v>0.78</v>
       </c>
-      <c r="L84" s="32">
+      <c r="L84" s="28">
         <v>0.78</v>
       </c>
-      <c r="M84" s="32">
+      <c r="M84" s="28">
         <v>0.78</v>
       </c>
-      <c r="N84" s="32">
+      <c r="N84" s="28">
         <v>0.78</v>
       </c>
-      <c r="O84" s="32">
+      <c r="O84" s="28">
         <v>0.78</v>
       </c>
-      <c r="P84" s="32">
+      <c r="P84" s="28">
         <v>0.78</v>
       </c>
-      <c r="Q84" s="32">
+      <c r="Q84" s="28">
         <v>0.78</v>
       </c>
-      <c r="R84" s="32">
+      <c r="R84" s="28">
         <v>0.78</v>
       </c>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="28"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -15464,7 +15437,7 @@
     </row>
     <row r="88" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2">
@@ -15606,7 +15579,7 @@
     </row>
     <row r="90" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B90" s="2">
         <f t="shared" ref="B90:AA90" si="20">+B70+B87</f>
@@ -15751,7 +15724,7 @@
     </row>
     <row r="92" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2">

--- a/data/Production_Filled_August.xlsx
+++ b/data/Production_Filled_August.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Total_Salable_Prod" sheetId="2" r:id="rId2"/>
     <sheet name="Product_Wise" sheetId="3" r:id="rId3"/>
+    <sheet name="Spinning_Prod" sheetId="4" r:id="rId4"/>
+    <sheet name="Twisting_Prod" sheetId="5" r:id="rId5"/>
+    <sheet name="Weaving_Prod" sheetId="6" r:id="rId6"/>
+    <sheet name="Spool_Winding_Stock" sheetId="7" r:id="rId7"/>
+    <sheet name="Cop_Winding_Stock" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>DATE</t>
   </si>
@@ -362,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +421,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -626,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -725,6 +745,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6845,7 +6878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
@@ -10401,8 +10434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10839,8 +10872,12 @@
       <c r="V9" s="29">
         <v>143</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
+      <c r="W9" s="28">
+        <v>0</v>
+      </c>
+      <c r="X9" s="28">
+        <v>0</v>
+      </c>
       <c r="Y9" s="29">
         <v>143</v>
       </c>
@@ -10918,8 +10955,12 @@
       <c r="V10" s="28">
         <v>0.6</v>
       </c>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
+      <c r="W10" s="28">
+        <v>0</v>
+      </c>
+      <c r="X10" s="28">
+        <v>0</v>
+      </c>
       <c r="Y10" s="28">
         <v>0.6</v>
       </c>
@@ -10997,8 +11038,12 @@
       <c r="V11" s="28">
         <v>1.2</v>
       </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
+      <c r="W11" s="28">
+        <v>0</v>
+      </c>
+      <c r="X11" s="28">
+        <v>0</v>
+      </c>
       <c r="Y11" s="28">
         <v>1.35</v>
       </c>
@@ -11076,8 +11121,12 @@
       <c r="V12" s="28">
         <v>0.63700000000000001</v>
       </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
+      <c r="W12" s="28">
+        <v>0</v>
+      </c>
+      <c r="X12" s="28">
+        <v>0</v>
+      </c>
       <c r="Y12" s="28">
         <v>0.64</v>
       </c>
@@ -11155,8 +11204,12 @@
       <c r="V13" s="28">
         <v>18.48</v>
       </c>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
+      <c r="W13" s="28">
+        <v>0</v>
+      </c>
+      <c r="X13" s="28">
+        <v>0</v>
+      </c>
       <c r="Y13" s="28">
         <v>18.228000000000002</v>
       </c>
@@ -11222,15 +11275,33 @@
       <c r="R14" s="28">
         <v>0</v>
       </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
+      <c r="S14" s="28">
+        <v>0</v>
+      </c>
+      <c r="T14" s="28">
+        <v>0</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28">
+        <v>0</v>
+      </c>
+      <c r="W14" s="28">
+        <v>0</v>
+      </c>
+      <c r="X14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -11287,15 +11358,33 @@
       <c r="R15" s="28">
         <v>0</v>
       </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
+      <c r="S15" s="28">
+        <v>0</v>
+      </c>
+      <c r="T15" s="28">
+        <v>0</v>
+      </c>
+      <c r="U15" s="28">
+        <v>0</v>
+      </c>
+      <c r="V15" s="28">
+        <v>0</v>
+      </c>
+      <c r="W15" s="28">
+        <v>0</v>
+      </c>
+      <c r="X15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -11364,8 +11453,12 @@
       <c r="V16" s="28">
         <v>0</v>
       </c>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
+      <c r="W16" s="28">
+        <v>0</v>
+      </c>
+      <c r="X16" s="28">
+        <v>0</v>
+      </c>
       <c r="Y16" s="28">
         <v>0</v>
       </c>
@@ -11460,8 +11553,12 @@
       <c r="V17" s="28">
         <v>9.49</v>
       </c>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
+      <c r="W17" s="28">
+        <v>0</v>
+      </c>
+      <c r="X17" s="28">
+        <v>0</v>
+      </c>
       <c r="Y17" s="28">
         <v>9.5</v>
       </c>
@@ -11556,8 +11653,12 @@
       <c r="V18" s="28">
         <v>4.46</v>
       </c>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
+      <c r="W18" s="28">
+        <v>0</v>
+      </c>
+      <c r="X18" s="28">
+        <v>0</v>
+      </c>
       <c r="Y18" s="28">
         <v>4.83</v>
       </c>
@@ -11635,8 +11736,12 @@
       <c r="V19" s="28">
         <v>5.41</v>
       </c>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
+      <c r="W19" s="28">
+        <v>0</v>
+      </c>
+      <c r="X19" s="28">
+        <v>0</v>
+      </c>
       <c r="Y19" s="28">
         <v>5.4359999999999999</v>
       </c>
@@ -11702,15 +11807,33 @@
       <c r="R20" s="28">
         <v>0</v>
       </c>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
+      <c r="S20" s="28">
+        <v>0</v>
+      </c>
+      <c r="T20" s="28">
+        <v>0</v>
+      </c>
+      <c r="U20" s="28">
+        <v>0</v>
+      </c>
+      <c r="V20" s="28">
+        <v>0</v>
+      </c>
+      <c r="W20" s="28">
+        <v>0</v>
+      </c>
+      <c r="X20" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -11779,8 +11902,12 @@
       <c r="V21" s="28">
         <v>1.61</v>
       </c>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
+      <c r="W21" s="28">
+        <v>0</v>
+      </c>
+      <c r="X21" s="28">
+        <v>0</v>
+      </c>
       <c r="Y21" s="28">
         <v>1.68</v>
       </c>
@@ -11846,15 +11973,33 @@
       <c r="R22" s="28">
         <v>0</v>
       </c>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
+      <c r="S22" s="28">
+        <v>0</v>
+      </c>
+      <c r="T22" s="28">
+        <v>0</v>
+      </c>
+      <c r="U22" s="28">
+        <v>0</v>
+      </c>
+      <c r="V22" s="28">
+        <v>0</v>
+      </c>
+      <c r="W22" s="28">
+        <v>0</v>
+      </c>
+      <c r="X22" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -11911,15 +12056,33 @@
       <c r="R23" s="28">
         <v>0</v>
       </c>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
+      <c r="S23" s="28">
+        <v>0</v>
+      </c>
+      <c r="T23" s="28">
+        <v>0</v>
+      </c>
+      <c r="U23" s="28">
+        <v>0</v>
+      </c>
+      <c r="V23" s="28">
+        <v>0</v>
+      </c>
+      <c r="W23" s="28">
+        <v>0</v>
+      </c>
+      <c r="X23" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -11976,15 +12139,33 @@
       <c r="R24" s="28">
         <v>0</v>
       </c>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
+      <c r="S24" s="28">
+        <v>0</v>
+      </c>
+      <c r="T24" s="28">
+        <v>0</v>
+      </c>
+      <c r="U24" s="28">
+        <v>0</v>
+      </c>
+      <c r="V24" s="28">
+        <v>0</v>
+      </c>
+      <c r="W24" s="28">
+        <v>0</v>
+      </c>
+      <c r="X24" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -12053,8 +12234,12 @@
       <c r="V25" s="28">
         <v>2.222</v>
       </c>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
+      <c r="W25" s="28">
+        <v>0</v>
+      </c>
+      <c r="X25" s="28">
+        <v>0</v>
+      </c>
       <c r="Y25" s="28">
         <v>1.79</v>
       </c>
@@ -12132,8 +12317,12 @@
       <c r="V26" s="28">
         <v>0.94</v>
       </c>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
+      <c r="W26" s="28">
+        <v>0</v>
+      </c>
+      <c r="X26" s="28">
+        <v>0</v>
+      </c>
       <c r="Y26" s="28">
         <v>0.96</v>
       </c>
@@ -12464,8 +12653,12 @@
       <c r="V34" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
+      <c r="W34" s="17">
+        <v>0</v>
+      </c>
+      <c r="X34" s="17">
+        <v>0</v>
+      </c>
       <c r="Y34" s="17">
         <v>0.79700000000000004</v>
       </c>
@@ -16232,4 +16425,4662 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51">
+        <v>45871</v>
+      </c>
+      <c r="C1" s="51">
+        <v>45872</v>
+      </c>
+      <c r="D1" s="51">
+        <v>45873</v>
+      </c>
+      <c r="E1" s="51">
+        <v>45874</v>
+      </c>
+      <c r="F1" s="51">
+        <v>45875</v>
+      </c>
+      <c r="G1" s="51">
+        <v>45876</v>
+      </c>
+      <c r="H1" s="51">
+        <v>45878</v>
+      </c>
+      <c r="I1" s="51">
+        <v>45879</v>
+      </c>
+      <c r="J1" s="51">
+        <v>45880</v>
+      </c>
+      <c r="K1" s="51">
+        <v>45881</v>
+      </c>
+      <c r="L1" s="51">
+        <v>45882</v>
+      </c>
+      <c r="M1" s="51">
+        <v>45883</v>
+      </c>
+      <c r="N1" s="51">
+        <v>45885</v>
+      </c>
+      <c r="O1" s="51">
+        <v>45886</v>
+      </c>
+      <c r="P1" s="51">
+        <v>45887</v>
+      </c>
+      <c r="Q1" s="51">
+        <v>45888</v>
+      </c>
+      <c r="R1" s="51">
+        <v>45889</v>
+      </c>
+      <c r="S1" s="51">
+        <v>45890</v>
+      </c>
+      <c r="T1" s="51">
+        <v>45892</v>
+      </c>
+      <c r="U1" s="51">
+        <v>45893</v>
+      </c>
+      <c r="V1" s="51">
+        <v>45894</v>
+      </c>
+      <c r="W1" s="51">
+        <v>45895</v>
+      </c>
+      <c r="X1" s="51">
+        <v>45896</v>
+      </c>
+      <c r="Y1" s="51">
+        <v>45897</v>
+      </c>
+      <c r="Z1" s="51">
+        <v>45899</v>
+      </c>
+      <c r="AA1" s="51">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="29">
+        <v>143</v>
+      </c>
+      <c r="C2" s="29">
+        <v>143</v>
+      </c>
+      <c r="D2" s="29">
+        <v>143</v>
+      </c>
+      <c r="E2" s="29">
+        <v>143</v>
+      </c>
+      <c r="F2" s="29">
+        <v>143</v>
+      </c>
+      <c r="G2" s="29">
+        <v>143</v>
+      </c>
+      <c r="H2" s="29">
+        <v>133</v>
+      </c>
+      <c r="I2" s="29">
+        <v>142</v>
+      </c>
+      <c r="J2" s="29">
+        <v>143</v>
+      </c>
+      <c r="K2" s="29">
+        <v>143</v>
+      </c>
+      <c r="L2" s="17">
+        <v>143</v>
+      </c>
+      <c r="M2" s="30">
+        <v>143</v>
+      </c>
+      <c r="N2" s="29">
+        <v>137</v>
+      </c>
+      <c r="O2" s="29">
+        <v>142</v>
+      </c>
+      <c r="P2" s="29">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>143</v>
+      </c>
+      <c r="R2" s="29">
+        <v>143</v>
+      </c>
+      <c r="S2" s="29">
+        <v>143</v>
+      </c>
+      <c r="T2" s="49">
+        <v>143</v>
+      </c>
+      <c r="U2" s="17">
+        <v>143</v>
+      </c>
+      <c r="V2" s="29">
+        <v>143</v>
+      </c>
+      <c r="W2" s="28">
+        <v>0</v>
+      </c>
+      <c r="X2" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="29">
+        <v>143</v>
+      </c>
+      <c r="Z2" s="29">
+        <v>143</v>
+      </c>
+      <c r="AA2" s="29">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28">
+        <v>2.6</v>
+      </c>
+      <c r="M3" s="28">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0</v>
+      </c>
+      <c r="P3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="28">
+        <v>1.92</v>
+      </c>
+      <c r="S3" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="T3" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="V3" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0</v>
+      </c>
+      <c r="X3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="Z3" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AA3" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="M4" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="N4" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="O4" s="28">
+        <v>2.6</v>
+      </c>
+      <c r="P4" s="28">
+        <v>2.6</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>2</v>
+      </c>
+      <c r="R4" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="S4" s="28">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="T4" s="28">
+        <v>1.56</v>
+      </c>
+      <c r="U4" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="V4" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="W4" s="28">
+        <v>0</v>
+      </c>
+      <c r="X4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>1.35</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>1.98</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.626</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0.626</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>0.62</v>
+      </c>
+      <c r="R5" s="28">
+        <v>0.437</v>
+      </c>
+      <c r="S5" s="28">
+        <v>0.65</v>
+      </c>
+      <c r="T5" s="28">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="U5" s="28">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="V5" s="28">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="W5" s="28">
+        <v>0</v>
+      </c>
+      <c r="X5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="28">
+        <v>0.64</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="AA5" s="28">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="28">
+        <v>18.768000000000001</v>
+      </c>
+      <c r="C6" s="28">
+        <v>18.867999999999999</v>
+      </c>
+      <c r="D6" s="28">
+        <v>17.38</v>
+      </c>
+      <c r="E6" s="28">
+        <v>17.986000000000001</v>
+      </c>
+      <c r="F6" s="28">
+        <v>18.123999999999999</v>
+      </c>
+      <c r="G6" s="28">
+        <v>18.46</v>
+      </c>
+      <c r="H6" s="28">
+        <v>16.942</v>
+      </c>
+      <c r="I6" s="28">
+        <v>18.852</v>
+      </c>
+      <c r="J6" s="28">
+        <v>18.82</v>
+      </c>
+      <c r="K6" s="28">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="L6" s="28">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="M6" s="28">
+        <v>16.954999999999998</v>
+      </c>
+      <c r="N6" s="28">
+        <v>17.831</v>
+      </c>
+      <c r="O6" s="28">
+        <v>18.055</v>
+      </c>
+      <c r="P6" s="28">
+        <v>17.716000000000001</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>17.53</v>
+      </c>
+      <c r="R6" s="28">
+        <v>17.882000000000001</v>
+      </c>
+      <c r="S6" s="28">
+        <v>17.431999999999999</v>
+      </c>
+      <c r="T6" s="28">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="U6" s="28">
+        <v>18.059000000000001</v>
+      </c>
+      <c r="V6" s="28">
+        <v>18.48</v>
+      </c>
+      <c r="W6" s="28">
+        <v>0</v>
+      </c>
+      <c r="X6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>18.228000000000002</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>17.77</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>17.463999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
+        <v>0</v>
+      </c>
+      <c r="S7" s="28">
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <v>0</v>
+      </c>
+      <c r="X7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <v>0</v>
+      </c>
+      <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>0</v>
+      </c>
+      <c r="R8" s="28">
+        <v>0</v>
+      </c>
+      <c r="S8" s="28">
+        <v>0</v>
+      </c>
+      <c r="T8" s="28">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+      <c r="V8" s="28">
+        <v>0</v>
+      </c>
+      <c r="W8" s="28">
+        <v>0</v>
+      </c>
+      <c r="X8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="28">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="C9" s="32">
+        <v>2.14</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="F9" s="28">
+        <v>2.7</v>
+      </c>
+      <c r="G9" s="28">
+        <v>2.7</v>
+      </c>
+      <c r="H9" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="I9" s="28">
+        <v>2.48</v>
+      </c>
+      <c r="J9" s="28">
+        <v>2.56</v>
+      </c>
+      <c r="K9" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="28">
+        <v>1.64</v>
+      </c>
+      <c r="M9" s="28">
+        <v>4.6050000000000004</v>
+      </c>
+      <c r="N9" s="28">
+        <v>1.24</v>
+      </c>
+      <c r="O9" s="28">
+        <v>1.55</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <v>0</v>
+      </c>
+      <c r="S9" s="28">
+        <v>0</v>
+      </c>
+      <c r="T9" s="28">
+        <v>0</v>
+      </c>
+      <c r="U9" s="28">
+        <v>0</v>
+      </c>
+      <c r="V9" s="28">
+        <v>0</v>
+      </c>
+      <c r="W9" s="28">
+        <v>0</v>
+      </c>
+      <c r="X9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="28">
+        <f>(9.15+3.75)</f>
+        <v>12.9</v>
+      </c>
+      <c r="C10" s="28">
+        <f>(10.378+2.985)</f>
+        <v>13.363</v>
+      </c>
+      <c r="D10" s="28">
+        <f>(10.432+3.75)</f>
+        <v>14.182</v>
+      </c>
+      <c r="E10" s="28">
+        <f>(10.466+3.76)</f>
+        <v>14.225999999999999</v>
+      </c>
+      <c r="F10" s="28">
+        <f>(10.49+2.94)</f>
+        <v>13.43</v>
+      </c>
+      <c r="G10" s="28">
+        <f>(9.36+2.5)</f>
+        <v>11.86</v>
+      </c>
+      <c r="H10" s="28">
+        <f>(9.77+2.57)</f>
+        <v>12.34</v>
+      </c>
+      <c r="I10" s="28">
+        <f>(10.69+2.54)</f>
+        <v>13.23</v>
+      </c>
+      <c r="J10" s="28">
+        <f>(10.635+2.16)</f>
+        <v>12.795</v>
+      </c>
+      <c r="K10" s="28">
+        <f>(10.59+3.815)</f>
+        <v>14.404999999999999</v>
+      </c>
+      <c r="L10" s="28">
+        <f>(10.28+3.78)</f>
+        <v>14.059999999999999</v>
+      </c>
+      <c r="M10" s="28">
+        <f>(9.91+3.805)</f>
+        <v>13.715</v>
+      </c>
+      <c r="N10" s="28">
+        <f>(10.181+4.59)</f>
+        <v>14.770999999999999</v>
+      </c>
+      <c r="O10" s="28">
+        <f>(9.855+4.28)</f>
+        <v>14.135000000000002</v>
+      </c>
+      <c r="P10" s="28">
+        <f>(9.815+4.245)</f>
+        <v>14.059999999999999</v>
+      </c>
+      <c r="Q10" s="28">
+        <f>(9.48+4.68)</f>
+        <v>14.16</v>
+      </c>
+      <c r="R10" s="28">
+        <f>(10.185+4.74)</f>
+        <v>14.925000000000001</v>
+      </c>
+      <c r="S10" s="28">
+        <v>9.516</v>
+      </c>
+      <c r="T10" s="28">
+        <v>9.48</v>
+      </c>
+      <c r="U10" s="28">
+        <v>9.59</v>
+      </c>
+      <c r="V10" s="28">
+        <v>9.49</v>
+      </c>
+      <c r="W10" s="28">
+        <v>0</v>
+      </c>
+      <c r="X10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>9.5</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="28">
+        <f>(9.15+3.75)</f>
+        <v>12.9</v>
+      </c>
+      <c r="C11" s="28">
+        <f>(10.378+2.985)</f>
+        <v>13.363</v>
+      </c>
+      <c r="D11" s="28">
+        <f>(10.432+3.75)</f>
+        <v>14.182</v>
+      </c>
+      <c r="E11" s="28">
+        <f>(10.466+3.76)</f>
+        <v>14.225999999999999</v>
+      </c>
+      <c r="F11" s="28">
+        <f>(10.49+2.94)</f>
+        <v>13.43</v>
+      </c>
+      <c r="G11" s="28">
+        <f>(9.36+2.5)</f>
+        <v>11.86</v>
+      </c>
+      <c r="H11" s="28">
+        <f>(9.77+2.57)</f>
+        <v>12.34</v>
+      </c>
+      <c r="I11" s="28">
+        <f>(10.69+2.54)</f>
+        <v>13.23</v>
+      </c>
+      <c r="J11" s="28">
+        <f>(10.635+2.16)</f>
+        <v>12.795</v>
+      </c>
+      <c r="K11" s="28">
+        <f>(10.59+3.815)</f>
+        <v>14.404999999999999</v>
+      </c>
+      <c r="L11" s="28">
+        <f>(10.28+3.78)</f>
+        <v>14.059999999999999</v>
+      </c>
+      <c r="M11" s="28">
+        <f>(9.91+3.805)</f>
+        <v>13.715</v>
+      </c>
+      <c r="N11" s="28">
+        <f>(10.181+4.59)</f>
+        <v>14.770999999999999</v>
+      </c>
+      <c r="O11" s="28">
+        <f>(9.855+4.28)</f>
+        <v>14.135000000000002</v>
+      </c>
+      <c r="P11" s="28">
+        <f>(9.815+4.245)</f>
+        <v>14.059999999999999</v>
+      </c>
+      <c r="Q11" s="28">
+        <f>(9.48+4.68)</f>
+        <v>14.16</v>
+      </c>
+      <c r="R11" s="28">
+        <f>(10.185+4.74)</f>
+        <v>14.925000000000001</v>
+      </c>
+      <c r="S11" s="28">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="T11" s="28">
+        <v>5.13</v>
+      </c>
+      <c r="U11" s="28">
+        <v>4.8970000000000002</v>
+      </c>
+      <c r="V11" s="28">
+        <v>4.46</v>
+      </c>
+      <c r="W11" s="28">
+        <v>0</v>
+      </c>
+      <c r="X11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="28">
+        <v>4.83</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>4.79</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="28">
+        <v>4.452</v>
+      </c>
+      <c r="C12" s="28">
+        <v>5.1559999999999997</v>
+      </c>
+      <c r="D12" s="28">
+        <v>5.76</v>
+      </c>
+      <c r="E12" s="28">
+        <v>5.14</v>
+      </c>
+      <c r="F12" s="28">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="G12" s="28">
+        <v>5.23</v>
+      </c>
+      <c r="H12" s="28">
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="I12" s="28">
+        <v>4.9260000000000002</v>
+      </c>
+      <c r="J12" s="28">
+        <v>5.38</v>
+      </c>
+      <c r="K12" s="28">
+        <v>3.81</v>
+      </c>
+      <c r="L12" s="28">
+        <v>3.4</v>
+      </c>
+      <c r="M12" s="28">
+        <v>1.95</v>
+      </c>
+      <c r="N12" s="28">
+        <v>2.9</v>
+      </c>
+      <c r="O12" s="28">
+        <v>3.22</v>
+      </c>
+      <c r="P12" s="28">
+        <v>5.4249999999999998</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>4.45</v>
+      </c>
+      <c r="R12" s="28">
+        <v>4.75</v>
+      </c>
+      <c r="S12" s="28">
+        <v>4.7</v>
+      </c>
+      <c r="T12" s="28">
+        <v>4.7</v>
+      </c>
+      <c r="U12" s="28">
+        <v>5.33</v>
+      </c>
+      <c r="V12" s="28">
+        <v>5.41</v>
+      </c>
+      <c r="W12" s="28">
+        <v>0</v>
+      </c>
+      <c r="X12" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="28">
+        <v>5.4359999999999999</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>4.76</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <v>0</v>
+      </c>
+      <c r="N13" s="28">
+        <v>0</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>0</v>
+      </c>
+      <c r="R13" s="28">
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
+        <v>0</v>
+      </c>
+      <c r="T13" s="28">
+        <v>0</v>
+      </c>
+      <c r="U13" s="28">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28">
+        <v>0</v>
+      </c>
+      <c r="W13" s="28">
+        <v>0</v>
+      </c>
+      <c r="X13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="28">
+        <v>1.59</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <v>0.54</v>
+      </c>
+      <c r="K14" s="28">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28">
+        <v>0.54</v>
+      </c>
+      <c r="M14" s="28">
+        <v>1.08</v>
+      </c>
+      <c r="N14" s="28">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O14" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P14" s="28">
+        <v>2.14</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="R14" s="28">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S14" s="28">
+        <v>1.88</v>
+      </c>
+      <c r="T14" s="28">
+        <v>1.64</v>
+      </c>
+      <c r="U14" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V14" s="28">
+        <v>1.61</v>
+      </c>
+      <c r="W14" s="28">
+        <v>0</v>
+      </c>
+      <c r="X14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>1.68</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>1.88</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
+        <v>0</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="28">
+        <v>0</v>
+      </c>
+      <c r="M15" s="28">
+        <v>0</v>
+      </c>
+      <c r="N15" s="28">
+        <v>0</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>0</v>
+      </c>
+      <c r="R15" s="28">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28">
+        <v>0</v>
+      </c>
+      <c r="T15" s="28">
+        <v>0</v>
+      </c>
+      <c r="U15" s="28">
+        <v>0</v>
+      </c>
+      <c r="V15" s="28">
+        <v>0</v>
+      </c>
+      <c r="W15" s="28">
+        <v>0</v>
+      </c>
+      <c r="X15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28">
+        <v>0</v>
+      </c>
+      <c r="K16" s="28">
+        <v>0</v>
+      </c>
+      <c r="L16" s="28">
+        <v>0</v>
+      </c>
+      <c r="M16" s="28">
+        <v>0</v>
+      </c>
+      <c r="N16" s="28">
+        <v>0</v>
+      </c>
+      <c r="O16" s="28">
+        <v>0</v>
+      </c>
+      <c r="P16" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>0</v>
+      </c>
+      <c r="R16" s="28">
+        <v>0</v>
+      </c>
+      <c r="S16" s="28">
+        <v>0</v>
+      </c>
+      <c r="T16" s="28">
+        <v>0</v>
+      </c>
+      <c r="U16" s="28">
+        <v>0</v>
+      </c>
+      <c r="V16" s="28">
+        <v>0</v>
+      </c>
+      <c r="W16" s="28">
+        <v>0</v>
+      </c>
+      <c r="X16" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28">
+        <v>0</v>
+      </c>
+      <c r="K17" s="28">
+        <v>0</v>
+      </c>
+      <c r="L17" s="28">
+        <v>0</v>
+      </c>
+      <c r="M17" s="28">
+        <v>0</v>
+      </c>
+      <c r="N17" s="28">
+        <v>0</v>
+      </c>
+      <c r="O17" s="28">
+        <v>0</v>
+      </c>
+      <c r="P17" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>0</v>
+      </c>
+      <c r="R17" s="28">
+        <v>0</v>
+      </c>
+      <c r="S17" s="28">
+        <v>0</v>
+      </c>
+      <c r="T17" s="28">
+        <v>0</v>
+      </c>
+      <c r="U17" s="28">
+        <v>0</v>
+      </c>
+      <c r="V17" s="28">
+        <v>0</v>
+      </c>
+      <c r="W17" s="28">
+        <v>0</v>
+      </c>
+      <c r="X17" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="28">
+        <v>3.16</v>
+      </c>
+      <c r="C18" s="28">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="D18" s="28">
+        <v>3.19</v>
+      </c>
+      <c r="E18" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="F18" s="28">
+        <v>3.28</v>
+      </c>
+      <c r="G18" s="28">
+        <v>3.738</v>
+      </c>
+      <c r="H18" s="28">
+        <v>3.27</v>
+      </c>
+      <c r="I18" s="28">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="J18" s="28">
+        <v>2.77</v>
+      </c>
+      <c r="K18" s="28">
+        <v>3.31</v>
+      </c>
+      <c r="L18" s="28">
+        <v>3.38</v>
+      </c>
+      <c r="M18" s="28">
+        <v>3.39</v>
+      </c>
+      <c r="N18" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="O18" s="28">
+        <v>3.45</v>
+      </c>
+      <c r="P18" s="28">
+        <v>2.19</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="R18" s="28">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="S18" s="28">
+        <v>3.07</v>
+      </c>
+      <c r="T18" s="28">
+        <v>1.97</v>
+      </c>
+      <c r="U18" s="28">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="V18" s="28">
+        <v>2.222</v>
+      </c>
+      <c r="W18" s="28">
+        <v>0</v>
+      </c>
+      <c r="X18" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="28">
+        <v>1.79</v>
+      </c>
+      <c r="Z18" s="28">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="AA18" s="28">
+        <v>3.2850000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="J19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="K19" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="L19" s="28">
+        <v>0.99</v>
+      </c>
+      <c r="M19" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="N19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="O19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="P19" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="R19" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="S19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="T19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="U19" s="28">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="V19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="W19" s="28">
+        <v>0</v>
+      </c>
+      <c r="X19" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="Z19" s="28">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="AA19" s="28">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="27" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51">
+        <v>45871</v>
+      </c>
+      <c r="C1" s="51">
+        <v>45872</v>
+      </c>
+      <c r="D1" s="51">
+        <v>45873</v>
+      </c>
+      <c r="E1" s="51">
+        <v>45874</v>
+      </c>
+      <c r="F1" s="51">
+        <v>45875</v>
+      </c>
+      <c r="G1" s="51">
+        <v>45876</v>
+      </c>
+      <c r="H1" s="51">
+        <v>45878</v>
+      </c>
+      <c r="I1" s="51">
+        <v>45879</v>
+      </c>
+      <c r="J1" s="51">
+        <v>45880</v>
+      </c>
+      <c r="K1" s="51">
+        <v>45881</v>
+      </c>
+      <c r="L1" s="51">
+        <v>45882</v>
+      </c>
+      <c r="M1" s="51">
+        <v>45883</v>
+      </c>
+      <c r="N1" s="51">
+        <v>45885</v>
+      </c>
+      <c r="O1" s="51">
+        <v>45886</v>
+      </c>
+      <c r="P1" s="51">
+        <v>45887</v>
+      </c>
+      <c r="Q1" s="51">
+        <v>45888</v>
+      </c>
+      <c r="R1" s="51">
+        <v>45889</v>
+      </c>
+      <c r="S1" s="51">
+        <v>45890</v>
+      </c>
+      <c r="T1" s="51">
+        <v>45892</v>
+      </c>
+      <c r="U1" s="51">
+        <v>45893</v>
+      </c>
+      <c r="V1" s="51">
+        <v>45894</v>
+      </c>
+      <c r="W1" s="51">
+        <v>45895</v>
+      </c>
+      <c r="X1" s="51">
+        <v>45896</v>
+      </c>
+      <c r="Y1" s="51">
+        <v>45897</v>
+      </c>
+      <c r="Z1" s="51">
+        <v>45899</v>
+      </c>
+      <c r="AA1" s="51">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.752</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="S2" s="17">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="T2" s="17">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="U2" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="V2" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="W2" s="17">
+        <v>0</v>
+      </c>
+      <c r="X2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="27" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51">
+        <v>45871</v>
+      </c>
+      <c r="C1" s="51">
+        <v>45872</v>
+      </c>
+      <c r="D1" s="51">
+        <v>45873</v>
+      </c>
+      <c r="E1" s="51">
+        <v>45874</v>
+      </c>
+      <c r="F1" s="51">
+        <v>45875</v>
+      </c>
+      <c r="G1" s="51">
+        <v>45876</v>
+      </c>
+      <c r="H1" s="51">
+        <v>45878</v>
+      </c>
+      <c r="I1" s="51">
+        <v>45879</v>
+      </c>
+      <c r="J1" s="51">
+        <v>45880</v>
+      </c>
+      <c r="K1" s="51">
+        <v>45881</v>
+      </c>
+      <c r="L1" s="51">
+        <v>45882</v>
+      </c>
+      <c r="M1" s="51">
+        <v>45883</v>
+      </c>
+      <c r="N1" s="51">
+        <v>45885</v>
+      </c>
+      <c r="O1" s="51">
+        <v>45886</v>
+      </c>
+      <c r="P1" s="51">
+        <v>45887</v>
+      </c>
+      <c r="Q1" s="51">
+        <v>45888</v>
+      </c>
+      <c r="R1" s="51">
+        <v>45889</v>
+      </c>
+      <c r="S1" s="51">
+        <v>45890</v>
+      </c>
+      <c r="T1" s="51">
+        <v>45892</v>
+      </c>
+      <c r="U1" s="51">
+        <v>45893</v>
+      </c>
+      <c r="V1" s="51">
+        <v>45894</v>
+      </c>
+      <c r="W1" s="51">
+        <v>45895</v>
+      </c>
+      <c r="X1" s="51">
+        <v>45896</v>
+      </c>
+      <c r="Y1" s="51">
+        <v>45897</v>
+      </c>
+      <c r="Z1" s="51">
+        <v>45899</v>
+      </c>
+      <c r="AA1" s="51">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.056</v>
+      </c>
+      <c r="C2" s="2">
+        <f>0.606+0.131</f>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <f>(264+606+131)/1000</f>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <f>(264+513)/1000</f>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.103</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="N2" s="2">
+        <f>(466+656)/1000</f>
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="O2" s="2">
+        <f>(527+466+262)/1000</f>
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <f>(372+466+262)/1000</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>(264+326+459)/1000</f>
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="R2" s="2">
+        <f>(264+466+262)/1000</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="S2" s="28">
+        <f>(264+372+466+197)/1000</f>
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="T2" s="28">
+        <f>(251+466+197)/1000</f>
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="U2" s="28">
+        <f>(527+420+262)/1000</f>
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="V2" s="28">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28">
+        <v>1.248</v>
+      </c>
+      <c r="Z2" s="28">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="AA2" s="28">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="R3" s="28">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="S3" s="28">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="T3" s="28">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="28">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="S4" s="28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T4" s="28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="U4" s="28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="V4" s="28">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>28.581</v>
+      </c>
+      <c r="C5" s="2">
+        <v>29.297999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29.48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30.071999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30.132000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30.372</v>
+      </c>
+      <c r="H5" s="2">
+        <v>25.678000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>29.201000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>29.219000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>30.154</v>
+      </c>
+      <c r="L5" s="2">
+        <v>31.047000000000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>31.064</v>
+      </c>
+      <c r="N5" s="2">
+        <v>28.332000000000001</v>
+      </c>
+      <c r="O5" s="2">
+        <v>29.81</v>
+      </c>
+      <c r="P5" s="2">
+        <v>30.073</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>29.841999999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <v>29.491</v>
+      </c>
+      <c r="S5" s="28">
+        <v>29.870999999999999</v>
+      </c>
+      <c r="T5" s="28">
+        <v>29.837</v>
+      </c>
+      <c r="U5" s="28">
+        <v>29.928999999999998</v>
+      </c>
+      <c r="V5" s="28">
+        <v>30.177</v>
+      </c>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28">
+        <v>29.29</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>29.285</v>
+      </c>
+      <c r="AA5" s="28">
+        <v>29.459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.605</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.498</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.284</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.498</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.712</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.605</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.605</v>
+      </c>
+      <c r="S6" s="28">
+        <v>1.284</v>
+      </c>
+      <c r="T6" s="28">
+        <v>1.284</v>
+      </c>
+      <c r="U6" s="28">
+        <v>1.284</v>
+      </c>
+      <c r="V6" s="28">
+        <v>1.284</v>
+      </c>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28">
+        <v>1.284</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>1.284</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>1.284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.071</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.111</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="S7" s="28">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="T7" s="28">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="V7" s="28">
+        <v>1.01</v>
+      </c>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="28" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51">
+        <v>45871</v>
+      </c>
+      <c r="C1" s="51">
+        <v>45872</v>
+      </c>
+      <c r="D1" s="51">
+        <v>45873</v>
+      </c>
+      <c r="E1" s="51">
+        <v>45874</v>
+      </c>
+      <c r="F1" s="51">
+        <v>45875</v>
+      </c>
+      <c r="G1" s="51">
+        <v>45876</v>
+      </c>
+      <c r="H1" s="51">
+        <v>45878</v>
+      </c>
+      <c r="I1" s="51">
+        <v>45879</v>
+      </c>
+      <c r="J1" s="51">
+        <v>45880</v>
+      </c>
+      <c r="K1" s="51">
+        <v>45881</v>
+      </c>
+      <c r="L1" s="51">
+        <v>45882</v>
+      </c>
+      <c r="M1" s="51">
+        <v>45883</v>
+      </c>
+      <c r="N1" s="51">
+        <v>45885</v>
+      </c>
+      <c r="O1" s="51">
+        <v>45886</v>
+      </c>
+      <c r="P1" s="51">
+        <v>45887</v>
+      </c>
+      <c r="Q1" s="51">
+        <v>45888</v>
+      </c>
+      <c r="R1" s="51">
+        <v>45889</v>
+      </c>
+      <c r="S1" s="51">
+        <v>45890</v>
+      </c>
+      <c r="T1" s="51">
+        <v>45892</v>
+      </c>
+      <c r="U1" s="51">
+        <v>45893</v>
+      </c>
+      <c r="V1" s="51">
+        <v>45894</v>
+      </c>
+      <c r="W1" s="51">
+        <v>45895</v>
+      </c>
+      <c r="X1" s="51">
+        <v>45896</v>
+      </c>
+      <c r="Y1" s="51">
+        <v>45897</v>
+      </c>
+      <c r="Z1" s="51">
+        <v>45899</v>
+      </c>
+      <c r="AA1" s="51">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
+        <v>0</v>
+      </c>
+      <c r="I2" s="28">
+        <v>0</v>
+      </c>
+      <c r="J2" s="28">
+        <v>0</v>
+      </c>
+      <c r="K2" s="28">
+        <v>0</v>
+      </c>
+      <c r="L2" s="28">
+        <v>0</v>
+      </c>
+      <c r="M2" s="28">
+        <v>0</v>
+      </c>
+      <c r="N2" s="28">
+        <v>0</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0</v>
+      </c>
+      <c r="P2" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>0</v>
+      </c>
+      <c r="R2" s="28">
+        <v>0</v>
+      </c>
+      <c r="S2" s="28">
+        <v>0</v>
+      </c>
+      <c r="T2" s="28">
+        <v>0</v>
+      </c>
+      <c r="U2" s="28">
+        <v>0</v>
+      </c>
+      <c r="V2" s="28">
+        <v>0</v>
+      </c>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28">
+        <v>0</v>
+      </c>
+      <c r="M3" s="28">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0</v>
+      </c>
+      <c r="P3" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>5</v>
+      </c>
+      <c r="R3" s="28">
+        <v>5</v>
+      </c>
+      <c r="S3" s="28">
+        <v>5</v>
+      </c>
+      <c r="T3" s="28">
+        <v>7</v>
+      </c>
+      <c r="U3" s="28">
+        <v>7</v>
+      </c>
+      <c r="V3" s="28">
+        <v>7.75</v>
+      </c>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="28">
+        <v>1</v>
+      </c>
+      <c r="L4" s="28">
+        <v>2</v>
+      </c>
+      <c r="M4" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="N4" s="28">
+        <v>2</v>
+      </c>
+      <c r="O4" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="P4" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28">
+        <v>0</v>
+      </c>
+      <c r="S4" s="28">
+        <v>0</v>
+      </c>
+      <c r="T4" s="28">
+        <v>0</v>
+      </c>
+      <c r="U4" s="28">
+        <v>0</v>
+      </c>
+      <c r="V4" s="28">
+        <v>0</v>
+      </c>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1.08</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="R5" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="S5" s="28">
+        <v>1</v>
+      </c>
+      <c r="T5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="V5" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AA5" s="28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="28">
+        <v>9.5</v>
+      </c>
+      <c r="C6" s="28">
+        <v>9</v>
+      </c>
+      <c r="D6" s="28">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="28">
+        <v>9</v>
+      </c>
+      <c r="F6" s="28">
+        <v>8</v>
+      </c>
+      <c r="G6" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="28">
+        <v>4</v>
+      </c>
+      <c r="I6" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="L6" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="M6" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="N6" s="28">
+        <v>7</v>
+      </c>
+      <c r="O6" s="28">
+        <v>8</v>
+      </c>
+      <c r="P6" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>9</v>
+      </c>
+      <c r="R6" s="28">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S6" s="28">
+        <v>8</v>
+      </c>
+      <c r="T6" s="28">
+        <v>8.75</v>
+      </c>
+      <c r="U6" s="28">
+        <v>9.5</v>
+      </c>
+      <c r="V6" s="28">
+        <v>10</v>
+      </c>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="28">
+        <v>14.75</v>
+      </c>
+      <c r="C7" s="28">
+        <v>16</v>
+      </c>
+      <c r="D7" s="28">
+        <v>17</v>
+      </c>
+      <c r="E7" s="28">
+        <v>19</v>
+      </c>
+      <c r="F7" s="28">
+        <v>19.5</v>
+      </c>
+      <c r="G7" s="28">
+        <v>21.5</v>
+      </c>
+      <c r="H7" s="28">
+        <v>22.5</v>
+      </c>
+      <c r="I7" s="28">
+        <v>22.5</v>
+      </c>
+      <c r="J7" s="28">
+        <v>23.4</v>
+      </c>
+      <c r="K7" s="28">
+        <v>22</v>
+      </c>
+      <c r="L7" s="28">
+        <v>25</v>
+      </c>
+      <c r="M7" s="28">
+        <v>25</v>
+      </c>
+      <c r="N7" s="28">
+        <v>27.5</v>
+      </c>
+      <c r="O7" s="28">
+        <v>29</v>
+      </c>
+      <c r="P7" s="28">
+        <v>28.75</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>26.195</v>
+      </c>
+      <c r="R7" s="28">
+        <v>26.195</v>
+      </c>
+      <c r="S7" s="28">
+        <v>27.5</v>
+      </c>
+      <c r="T7" s="28">
+        <v>26</v>
+      </c>
+      <c r="U7" s="28">
+        <v>25</v>
+      </c>
+      <c r="V7" s="28">
+        <v>25</v>
+      </c>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>20.8</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="28">
+        <v>74.290999999999997</v>
+      </c>
+      <c r="C8" s="28">
+        <v>67.447000000000003</v>
+      </c>
+      <c r="D8" s="28">
+        <v>73.206999999999994</v>
+      </c>
+      <c r="E8" s="28">
+        <v>66.656999999999996</v>
+      </c>
+      <c r="F8" s="28">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="G8" s="28">
+        <v>71.44</v>
+      </c>
+      <c r="H8" s="28">
+        <v>76.695999999999998</v>
+      </c>
+      <c r="I8" s="28">
+        <v>70.322000000000003</v>
+      </c>
+      <c r="J8" s="28">
+        <v>75.701999999999998</v>
+      </c>
+      <c r="K8" s="28">
+        <v>79.512</v>
+      </c>
+      <c r="L8" s="28">
+        <v>82.912000000000006</v>
+      </c>
+      <c r="M8" s="28">
+        <v>73.281999999999996</v>
+      </c>
+      <c r="N8" s="28">
+        <v>76.182000000000002</v>
+      </c>
+      <c r="O8" s="28">
+        <v>79.402000000000001</v>
+      </c>
+      <c r="P8" s="28">
+        <v>84.826999999999998</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>77.947000000000003</v>
+      </c>
+      <c r="R8" s="28">
+        <v>82.697000000000003</v>
+      </c>
+      <c r="S8" s="28">
+        <v>75.897000000000006</v>
+      </c>
+      <c r="T8" s="28">
+        <v>69.016999999999996</v>
+      </c>
+      <c r="U8" s="28">
+        <v>74.346999999999994</v>
+      </c>
+      <c r="V8" s="28">
+        <v>79.757300000000001</v>
+      </c>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28">
+        <v>71.337000000000003</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>76.096999999999994</v>
+      </c>
+      <c r="AA8" s="28">
+        <v>67.796999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <v>0</v>
+      </c>
+      <c r="S9" s="28">
+        <v>0</v>
+      </c>
+      <c r="T9" s="28">
+        <v>0</v>
+      </c>
+      <c r="U9" s="28">
+        <v>0</v>
+      </c>
+      <c r="V9" s="28">
+        <v>0</v>
+      </c>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0</v>
+      </c>
+      <c r="M10" s="28">
+        <v>0</v>
+      </c>
+      <c r="N10" s="28">
+        <v>0</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>0</v>
+      </c>
+      <c r="R10" s="28">
+        <v>0</v>
+      </c>
+      <c r="S10" s="28">
+        <v>0</v>
+      </c>
+      <c r="T10" s="28">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0</v>
+      </c>
+      <c r="V10" s="28">
+        <v>0</v>
+      </c>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="28">
+        <v>26.318000000000001</v>
+      </c>
+      <c r="C11" s="28">
+        <v>29.683</v>
+      </c>
+      <c r="D11" s="28">
+        <v>20.873000000000001</v>
+      </c>
+      <c r="E11" s="28">
+        <v>24.073</v>
+      </c>
+      <c r="F11" s="28">
+        <v>18.353000000000002</v>
+      </c>
+      <c r="G11" s="28">
+        <v>22.091000000000001</v>
+      </c>
+      <c r="H11" s="28">
+        <v>25.361000000000001</v>
+      </c>
+      <c r="I11" s="34">
+        <v>28.658000000000001</v>
+      </c>
+      <c r="J11" s="28">
+        <v>31.428000000000001</v>
+      </c>
+      <c r="K11" s="28">
+        <v>25.738</v>
+      </c>
+      <c r="L11" s="28">
+        <v>29.117999999999999</v>
+      </c>
+      <c r="M11" s="28">
+        <v>32.508000000000003</v>
+      </c>
+      <c r="N11" s="28">
+        <v>35.808</v>
+      </c>
+      <c r="O11" s="28">
+        <v>39.258000000000003</v>
+      </c>
+      <c r="P11" s="28">
+        <v>32.448</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>23.728000000000002</v>
+      </c>
+      <c r="R11" s="28">
+        <v>15.023</v>
+      </c>
+      <c r="S11" s="28">
+        <v>12.093</v>
+      </c>
+      <c r="T11" s="28">
+        <v>14.063000000000001</v>
+      </c>
+      <c r="U11" s="28">
+        <v>16.323</v>
+      </c>
+      <c r="V11" s="28">
+        <v>12.545</v>
+      </c>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28">
+        <v>10.976000000000001</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>13.474</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>16.759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="C12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="D12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="E12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="F12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="G12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="H12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="I12" s="34">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="J12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="K12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="L12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="M12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="N12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="O12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="P12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="R12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="S12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="T12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="U12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="V12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>19.225000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <v>0</v>
+      </c>
+      <c r="N13" s="28">
+        <v>0</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>0</v>
+      </c>
+      <c r="R13" s="28">
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
+        <v>0</v>
+      </c>
+      <c r="T13" s="28">
+        <v>0</v>
+      </c>
+      <c r="U13" s="28">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28">
+        <v>0</v>
+      </c>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="28">
+        <v>1.75</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1.75</v>
+      </c>
+      <c r="D14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="G14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="H14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="I14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="J14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="K14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="L14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="M14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="N14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="O14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="P14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="R14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="S14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="T14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="U14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="V14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
+        <v>0</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="28">
+        <v>0</v>
+      </c>
+      <c r="M15" s="28">
+        <v>0</v>
+      </c>
+      <c r="N15" s="28">
+        <v>0</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>0</v>
+      </c>
+      <c r="R15" s="28">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28">
+        <v>0</v>
+      </c>
+      <c r="T15" s="28">
+        <v>0</v>
+      </c>
+      <c r="U15" s="28">
+        <v>0</v>
+      </c>
+      <c r="V15" s="28">
+        <v>0</v>
+      </c>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="28">
+        <v>9</v>
+      </c>
+      <c r="C16" s="28">
+        <v>9</v>
+      </c>
+      <c r="D16" s="28">
+        <v>9</v>
+      </c>
+      <c r="E16" s="28">
+        <v>8.5</v>
+      </c>
+      <c r="F16" s="28">
+        <v>8</v>
+      </c>
+      <c r="G16" s="28">
+        <v>8</v>
+      </c>
+      <c r="H16" s="28">
+        <v>8</v>
+      </c>
+      <c r="I16" s="28">
+        <v>7.75</v>
+      </c>
+      <c r="J16" s="28">
+        <v>8</v>
+      </c>
+      <c r="K16" s="28">
+        <v>9</v>
+      </c>
+      <c r="L16" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="M16" s="28">
+        <v>8.75</v>
+      </c>
+      <c r="N16" s="28">
+        <v>6</v>
+      </c>
+      <c r="O16" s="28">
+        <v>5</v>
+      </c>
+      <c r="P16" s="28">
+        <v>5.5</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>5.75</v>
+      </c>
+      <c r="R16" s="28">
+        <v>5.75</v>
+      </c>
+      <c r="S16" s="28">
+        <v>5</v>
+      </c>
+      <c r="T16" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="U16" s="28">
+        <v>5</v>
+      </c>
+      <c r="V16" s="28">
+        <v>5</v>
+      </c>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="28">
+        <v>2</v>
+      </c>
+      <c r="C17" s="28">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>2</v>
+      </c>
+      <c r="F17" s="28">
+        <v>2</v>
+      </c>
+      <c r="G17" s="28">
+        <v>2</v>
+      </c>
+      <c r="H17" s="28">
+        <v>2</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2</v>
+      </c>
+      <c r="J17" s="28">
+        <v>2</v>
+      </c>
+      <c r="K17" s="28">
+        <v>2</v>
+      </c>
+      <c r="L17" s="28">
+        <v>2</v>
+      </c>
+      <c r="M17" s="28">
+        <v>2</v>
+      </c>
+      <c r="N17" s="28">
+        <v>2</v>
+      </c>
+      <c r="O17" s="28">
+        <v>2</v>
+      </c>
+      <c r="P17" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>2</v>
+      </c>
+      <c r="R17" s="28">
+        <v>2</v>
+      </c>
+      <c r="S17" s="28">
+        <v>2</v>
+      </c>
+      <c r="T17" s="28">
+        <v>2</v>
+      </c>
+      <c r="U17" s="28">
+        <v>2</v>
+      </c>
+      <c r="V17" s="28">
+        <v>2</v>
+      </c>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="28">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="27" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="55" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54">
+        <v>45871</v>
+      </c>
+      <c r="C1" s="54">
+        <v>45872</v>
+      </c>
+      <c r="D1" s="54">
+        <v>45873</v>
+      </c>
+      <c r="E1" s="54">
+        <v>45874</v>
+      </c>
+      <c r="F1" s="54">
+        <v>45875</v>
+      </c>
+      <c r="G1" s="54">
+        <v>45876</v>
+      </c>
+      <c r="H1" s="54">
+        <v>45878</v>
+      </c>
+      <c r="I1" s="54">
+        <v>45879</v>
+      </c>
+      <c r="J1" s="54">
+        <v>45880</v>
+      </c>
+      <c r="K1" s="54">
+        <v>45881</v>
+      </c>
+      <c r="L1" s="54">
+        <v>45882</v>
+      </c>
+      <c r="M1" s="54">
+        <v>45883</v>
+      </c>
+      <c r="N1" s="54">
+        <v>45885</v>
+      </c>
+      <c r="O1" s="54">
+        <v>45886</v>
+      </c>
+      <c r="P1" s="54">
+        <v>45887</v>
+      </c>
+      <c r="Q1" s="54">
+        <v>45888</v>
+      </c>
+      <c r="R1" s="54">
+        <v>45889</v>
+      </c>
+      <c r="S1" s="54">
+        <v>45890</v>
+      </c>
+      <c r="T1" s="54">
+        <v>45892</v>
+      </c>
+      <c r="U1" s="54">
+        <v>45893</v>
+      </c>
+      <c r="V1" s="54">
+        <v>45894</v>
+      </c>
+      <c r="W1" s="54">
+        <v>45895</v>
+      </c>
+      <c r="X1" s="54">
+        <v>45896</v>
+      </c>
+      <c r="Y1" s="54">
+        <v>45897</v>
+      </c>
+      <c r="Z1" s="54">
+        <v>45899</v>
+      </c>
+      <c r="AA1" s="54">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1.05</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0.42</v>
+      </c>
+      <c r="H2" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="28">
+        <v>0.42</v>
+      </c>
+      <c r="J2" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="28">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L2" s="28">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="M2" s="28">
+        <v>1.05</v>
+      </c>
+      <c r="N2" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="P2" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="R2" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="S2" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="T2" s="28">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="U2" s="28">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="V2" s="28">
+        <v>0.63</v>
+      </c>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="Z2" s="28">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="AA2" s="28">
+        <v>1.0349999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28">
+        <v>0</v>
+      </c>
+      <c r="M3" s="28">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0</v>
+      </c>
+      <c r="P3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
+        <v>0</v>
+      </c>
+      <c r="S3" s="28">
+        <v>0</v>
+      </c>
+      <c r="T3" s="28">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="28">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="28">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="C4" s="28">
+        <v>4.2</v>
+      </c>
+      <c r="D4" s="28">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="E4" s="28">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="F4" s="28">
+        <v>5.4</v>
+      </c>
+      <c r="G4" s="28">
+        <v>5.25</v>
+      </c>
+      <c r="H4" s="28">
+        <v>5.52</v>
+      </c>
+      <c r="I4" s="28">
+        <v>5.4</v>
+      </c>
+      <c r="J4" s="28">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="K4" s="28">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="L4" s="28">
+        <v>4.875</v>
+      </c>
+      <c r="M4" s="28">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N4" s="28">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O4" s="28">
+        <v>4.47</v>
+      </c>
+      <c r="P4" s="28">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="R4" s="28">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S4" s="28">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="T4" s="28">
+        <v>5.55</v>
+      </c>
+      <c r="U4" s="28">
+        <v>5.085</v>
+      </c>
+      <c r="V4" s="28">
+        <v>5.22</v>
+      </c>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28">
+        <v>0</v>
+      </c>
+      <c r="S5" s="28">
+        <v>0</v>
+      </c>
+      <c r="T5" s="28">
+        <v>0</v>
+      </c>
+      <c r="U5" s="28">
+        <v>0</v>
+      </c>
+      <c r="V5" s="28">
+        <v>0</v>
+      </c>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="C6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="D6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="E6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="F6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="G6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="H6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="I6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="J6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="K6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="L6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="M6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="N6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="O6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="P6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="R6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="S6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="T6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="U6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="V6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>10.02</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1.47</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1.35</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1.35</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="J7" s="28">
+        <v>1.875</v>
+      </c>
+      <c r="K7" s="28">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="L7" s="28">
+        <v>1.425</v>
+      </c>
+      <c r="M7" s="28">
+        <v>1.17</v>
+      </c>
+      <c r="N7" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="R7" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="S7" s="28">
+        <v>0.63</v>
+      </c>
+      <c r="T7" s="28">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0.96</v>
+      </c>
+      <c r="V7" s="28">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>1.35</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <v>0</v>
+      </c>
+      <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>0</v>
+      </c>
+      <c r="R8" s="28">
+        <v>0</v>
+      </c>
+      <c r="S8" s="28">
+        <v>0</v>
+      </c>
+      <c r="T8" s="28">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+      <c r="V8" s="28">
+        <v>0</v>
+      </c>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0</v>
+      </c>
+      <c r="K9" s="34">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <v>0</v>
+      </c>
+      <c r="S9" s="28">
+        <v>0</v>
+      </c>
+      <c r="T9" s="28">
+        <v>0</v>
+      </c>
+      <c r="U9" s="28">
+        <v>0</v>
+      </c>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.105</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="28">
+        <v>1.32</v>
+      </c>
+      <c r="I10" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J10" s="28">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="K10" s="28">
+        <v>1.35</v>
+      </c>
+      <c r="L10" s="28">
+        <v>1.23</v>
+      </c>
+      <c r="M10" s="28">
+        <v>1.125</v>
+      </c>
+      <c r="N10" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0.99</v>
+      </c>
+      <c r="P10" s="28">
+        <v>1.08</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R10" s="28">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S10" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="T10" s="28">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="U10" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="V10" s="28">
+        <v>1.08</v>
+      </c>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>1.125</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="M11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="N11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="R11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="S11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="T11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="U11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="V11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>0.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>